--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
     <sheet name="Speedups over stateful" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>CoarseSerializedBeamFormer</t>
   </si>
@@ -94,6 +95,24 @@
   </si>
   <si>
     <t>Speedup Iter over NonIter</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Instances</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>MPEGencoder (Motion Estimation)</t>
+  </si>
+  <si>
+    <t>MPEGencoder (Picture Preprocessing)</t>
   </si>
 </sst>
 </file>
@@ -137,11 +156,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,25 +669,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107348736"/>
-        <c:axId val="107350656"/>
+        <c:axId val="59745024"/>
+        <c:axId val="59746560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107348736"/>
+        <c:axId val="59745024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107350656"/>
+        <c:crossAx val="59746560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107350656"/>
+        <c:axId val="59746560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +695,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107348736"/>
+        <c:crossAx val="59745024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -680,7 +708,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1006,31 +1034,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
         <v>2688</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>K2/K3</f>
+        <v>3.1673163121503345E-3</v>
+      </c>
+      <c r="K2">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1041,21 +1087,33 @@
         <f>C2/C3</f>
         <v>3.1673163121503345E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="K3">
+        <v>848668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1066,21 +1124,40 @@
         <f>C6/C7</f>
         <v>2.9989388370268982E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <f>K6/K7</f>
+        <v>2.9989388370268982E-4</v>
+      </c>
+      <c r="K7">
+        <v>390138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
         <v>75784</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>75784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -1091,55 +1168,98 @@
         <f>C10/C11</f>
         <v>3.9366041750319852E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <f>K10/K11</f>
+        <v>3.9366041750319852E-2</v>
+      </c>
+      <c r="K11">
+        <v>1925111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
         <v>126464</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>126464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
         <v>21088</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>21088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="C16">
         <v>21088</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="K16">
+        <v>21088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17">
         <v>106496</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>106496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="C18">
         <v>106496</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="K18">
+        <v>106496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19">
         <v>90112</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>90112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1150,26 +1270,48 @@
         <f>SUM(C14:C19)/C20</f>
         <v>3.0089968715602201E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <f>SUM(K14:K19)/K20</f>
+        <v>3.0089968715602201E-2</v>
+      </c>
+      <c r="K20">
+        <v>15677783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
         <v>783896</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <v>783896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="C24">
         <v>783896</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="K24">
+        <v>783896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -1180,21 +1322,40 @@
         <f>SUM(C23:C24)/C25</f>
         <v>0.98219227085039185</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <f>SUM(K23:K24)/K25</f>
+        <v>0.98219227085039185</v>
+      </c>
+      <c r="K25">
+        <v>1596217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28">
         <v>1152025</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>1152025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -1204,6 +1365,16 @@
       <c r="D29" s="1">
         <f>C28/C29</f>
         <v>2.6883116170928572E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <f>K28/K29</f>
+        <v>2.6883116170928572E-2</v>
+      </c>
+      <c r="K29">
+        <v>42853105</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1387,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1627,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1850,4 +2021,120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.98219999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>CoarseSerializedBeamFormer</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>MPEGencoder (Picture Preprocessing)</t>
+  </si>
+  <si>
+    <t>Stateful</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>Speedup</t>
   </si>
 </sst>
 </file>
@@ -183,7 +192,9 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="3"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -193,11 +204,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Speedups over stateful'!$B$1</c:f>
+              <c:f>'Speedups over stateful'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0%</c:v>
+                  <c:v>1%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -207,103 +218,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedups over stateful'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'Speedups over stateful'!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speedups over stateful'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Speedups over stateful'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -381,8 +296,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$D$1</c:f>
@@ -399,7 +314,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedups over stateful'!$A$2:$A$11</c:f>
+              <c:f>'Speedups over stateful'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -477,8 +392,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$E$1</c:f>
@@ -495,7 +410,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedups over stateful'!$A$2:$A$11</c:f>
+              <c:f>'Speedups over stateful'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -573,8 +488,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$F$1</c:f>
@@ -591,7 +506,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedups over stateful'!$A$2:$A$11</c:f>
+              <c:f>'Speedups over stateful'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -669,40 +584,118 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59745024"/>
-        <c:axId val="59746560"/>
+        <c:axId val="56846208"/>
+        <c:axId val="56853248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59745024"/>
+        <c:axId val="56846208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59746560"/>
+        <c:crossAx val="56853248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59746560"/>
+        <c:axId val="56853248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Speedup over Stateful Parallelized </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.222222222222223E-2"/>
+              <c:y val="3.7396057976829343E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="#,##0;\-#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59745024"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="56846208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18055555555555555"/>
+          <c:y val="9.5898824748817238E-2"/>
+          <c:w val="0.15913888888888891"/>
+          <c:h val="0.30714077937710027"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -714,24 +707,545 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="3"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$9:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$9:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0169720375710329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0329440828066239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0068541109743387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7838067327633407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.845011630328085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$9:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$9:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6714269113736928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2547732117347232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9315984451317991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.659633989825966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.871363325642214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="88132992"/>
+        <c:axId val="88802816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="88132992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88802816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88802816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88132992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2056064436899516"/>
+          <c:y val="0.10146799358413532"/>
+          <c:w val="0.2022935779816514"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$32:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8185568315735026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1757096261701809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9758329767506355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3162604673238354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0777217944676671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$32:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8983820367733824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5466821965360356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4183230273581833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5076212214371267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.222846741301439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="127321600"/>
+        <c:axId val="127323520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="127321600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127323520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127323520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127321600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22222222222222221"/>
+          <c:y val="0.17091243802857975"/>
+          <c:w val="0.2022935779816514"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -741,6 +1255,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1384,18 +1963,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:10">
       <c r="C1" s="2">
         <v>0.01</v>
       </c>
@@ -1417,25 +1993,24 @@
       <c r="I1" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <f>1+B$1*($A2-1)</f>
+      <c r="J1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f>1+C$1*($A2-1)</f>
+        <f t="shared" ref="C2:J11" si="0">1+C$1*($B2-1)</f>
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f>1+D$1*($A2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:I2" si="0">1+E$1*($A2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F2" s="3">
@@ -1454,367 +2029,372 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:I11" si="1">1+B$1*($A3-1)</f>
-        <v>1</v>
-      </c>
       <c r="C3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.21</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7">
         <v>32</v>
       </c>
-      <c r="B7" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.93</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8">
         <v>64</v>
       </c>
-      <c r="B8" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.63</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8899999999999997</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.75</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
         <v>128</v>
       </c>
-      <c r="B9" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.27</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.8100000000000005</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3500000000000005</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.700000000000001</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32.75</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10">
         <v>256</v>
       </c>
-      <c r="B10" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5500000000000003</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6499999999999986</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.75</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64.75</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>128.5</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
         <v>512</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.11</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.329999999999998</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.55</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52.1</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>128.75</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>256.5</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>512</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="D3" t="s">
         <v>18</v>
       </c>
@@ -1822,7 +2402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1836,7 +2416,7 @@
         <v>895932942</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1858,7 +2438,7 @@
         <v>4.9283344064203458</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1880,7 +2460,7 @@
         <v>9.3464473646719046</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1902,124 +2482,615 @@
         <v>15.666103204947044</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>898699167</v>
+      </c>
+      <c r="C9">
+        <v>895932942</v>
+      </c>
+      <c r="D9">
+        <f>B$9/B9</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>C$9/C9</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>445568481</v>
+      </c>
+      <c r="C10">
+        <v>335376176</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E14" si="0">B$9/B10</f>
+        <v>2.0169720375710329</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.6714269113736928</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2.0169720375710329</v>
+      </c>
+      <c r="J10">
+        <v>2.6714269113736928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>442067824</v>
+      </c>
+      <c r="C11">
+        <v>170498879</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.0329440828066239</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.2547732117347232</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>2.0329440828066239</v>
+      </c>
+      <c r="J11">
+        <v>5.2547732117347232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>447814897</v>
+      </c>
+      <c r="C12">
+        <v>90210347</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.0068541109743387</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9.9315984451317991</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>2.0068541109743387</v>
+      </c>
+      <c r="J12">
+        <v>9.9315984451317991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>503809718</v>
+      </c>
+      <c r="C13">
+        <v>53778669</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.7838067327633407</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>16.659633989825966</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>1.7838067327633407</v>
+      </c>
+      <c r="J13">
+        <v>16.659633989825966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>487096749</v>
+      </c>
+      <c r="C14">
+        <v>31031889</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.845011630328085</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>28.871363325642214</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>1.845011630328085</v>
+      </c>
+      <c r="J14">
+        <v>28.871363325642214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="C12" t="s">
+    <row r="19" spans="1:9">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G19" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>819200</v>
       </c>
-      <c r="C13">
+      <c r="C20">
         <v>1143014592</v>
       </c>
-      <c r="E13">
-        <f>C13/B13</f>
+      <c r="E20">
+        <f>C20/B20</f>
         <v>1395.281484375</v>
       </c>
-      <c r="G13">
+      <c r="G20">
         <v>1150428809</v>
       </c>
-      <c r="H13">
-        <f>G13/C13</f>
+      <c r="H20">
+        <f>G20/C20</f>
         <v>1.006486546236498</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B21">
         <v>819200</v>
       </c>
-      <c r="C14">
+      <c r="C21">
         <v>158540952</v>
       </c>
-      <c r="D14">
-        <f>C13/C14</f>
+      <c r="D21">
+        <f>C20/C21</f>
         <v>7.2095857731445943</v>
       </c>
-      <c r="E14">
-        <f>C14/B14</f>
+      <c r="E21">
+        <f>C21/B21</f>
         <v>193.531435546875</v>
       </c>
-      <c r="G14">
+      <c r="G21">
         <v>194801953</v>
       </c>
-      <c r="H14">
-        <f>G14/C14</f>
+      <c r="H21">
+        <f>G21/C21</f>
         <v>1.2287169374383471</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B22">
         <v>819200</v>
       </c>
-      <c r="C15">
+      <c r="C22">
         <v>95956544</v>
       </c>
-      <c r="D15">
-        <f>C13/C15</f>
+      <c r="D22">
+        <f>C20/C22</f>
         <v>11.911794072116646</v>
       </c>
-      <c r="E15">
-        <f>C15/B15</f>
+      <c r="E22">
+        <f>C22/B22</f>
         <v>117.13445312499999</v>
       </c>
-      <c r="G15">
+      <c r="G22">
         <v>136098734</v>
       </c>
-      <c r="H15">
-        <f>G15/C15</f>
+      <c r="H22">
+        <f>G22/C22</f>
         <v>1.4183371797967212</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="B23">
         <v>819200</v>
       </c>
-      <c r="C16">
+      <c r="C23">
         <v>58306587</v>
       </c>
-      <c r="D16">
-        <f>C13/C16</f>
+      <c r="D23">
+        <f>C20/C23</f>
         <v>19.603524246754489</v>
       </c>
-      <c r="E16">
-        <f>C16/B16</f>
+      <c r="E23">
+        <f>C23/B23</f>
         <v>71.175032958984374</v>
       </c>
-      <c r="G16">
+      <c r="G23">
         <v>92521478</v>
       </c>
-      <c r="H16">
-        <f>G16/C16</f>
+      <c r="H23">
+        <f>G23/C23</f>
         <v>1.5868100460073233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>312652676</v>
+      </c>
+      <c r="D25">
+        <f>$C$25/C25</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>327214802</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>F25/C25</f>
+        <v>1.0465760478570156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>164694287</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D30" si="1">$C$25/C26</f>
+        <v>1.8983820367733824</v>
+      </c>
+      <c r="F26">
+        <v>179931029</v>
+      </c>
+      <c r="G26">
+        <f>$F$25/F26</f>
+        <v>1.8185568315735026</v>
+      </c>
+      <c r="H26">
+        <f>F26/C26</f>
+        <v>1.0925153038247162</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I30" si="2">F26/C26</f>
+        <v>1.0925153038247162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>88153564</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>3.5466821965360356</v>
+      </c>
+      <c r="F27">
+        <v>103036751</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G30" si="3">$F$25/F27</f>
+        <v>3.1757096261701809</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H30" si="4">F27/C27</f>
+        <v>1.168832504605259</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1.168832504605259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>48712518</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>6.4183230273581833</v>
+      </c>
+      <c r="F28">
+        <v>65760809</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>4.9758329767506355</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>1.3499776176628768</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>1.3499776176628768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>32884427</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>9.5076212214371267</v>
+      </c>
+      <c r="F29">
+        <v>51805147</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>6.3162604673238354</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>1.5753702200740793</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>1.5753702200740793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>21982426</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>14.222846741301439</v>
+      </c>
+      <c r="F30">
+        <v>40508303</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>8.0777217944676671</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>1.8427585290176798</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>1.8427585290176798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1.0465760478570156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1.8185568315735026</v>
+      </c>
+      <c r="C33">
+        <v>1.8983820367733824</v>
+      </c>
+      <c r="D33">
+        <v>1.0925153038247162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>3.1757096261701809</v>
+      </c>
+      <c r="C34">
+        <v>3.5466821965360356</v>
+      </c>
+      <c r="D34">
+        <v>1.168832504605259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>4.9758329767506355</v>
+      </c>
+      <c r="C35">
+        <v>6.4183230273581833</v>
+      </c>
+      <c r="D35">
+        <v>1.3499776176628768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>6.3162604673238354</v>
+      </c>
+      <c r="C36">
+        <v>9.5076212214371267</v>
+      </c>
+      <c r="D36">
+        <v>1.5753702200740793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>8.0777217944676671</v>
+      </c>
+      <c r="C37">
+        <v>14.222846741301439</v>
+      </c>
+      <c r="D37">
+        <v>1.8427585290176798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1.0465760478570156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1.0925153038247162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1.168832504605259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>1.3499776176628768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>1.5753702200740793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>1.8427585290176798</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2027,7 +3098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1%</c:v>
+                  <c:v>10%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -265,31 +265,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.01</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.03</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.07</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.31</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.63</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.27</c:v>
+                  <c:v>13.700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5500000000000003</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.11</c:v>
+                  <c:v>52.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -304,7 +304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3%</c:v>
+                  <c:v>5%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -361,31 +361,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.03</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.21</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.45</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.93</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8899999999999997</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8100000000000005</c:v>
+                  <c:v>7.3500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6499999999999986</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.329999999999998</c:v>
+                  <c:v>26.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,7 +400,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5%</c:v>
+                  <c:v>3%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -457,31 +457,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.05</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.35</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.75</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1500000000000004</c:v>
+                  <c:v>2.8899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3500000000000005</c:v>
+                  <c:v>4.8100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.75</c:v>
+                  <c:v>8.6499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.55</c:v>
+                  <c:v>16.329999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,7 +496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10%</c:v>
+                  <c:v>1%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -553,42 +553,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.700000000000001</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.5</c:v>
+                  <c:v>3.5500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.1</c:v>
+                  <c:v>6.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="56846208"/>
-        <c:axId val="56853248"/>
+        <c:axId val="74517120"/>
+        <c:axId val="74785536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56846208"/>
+        <c:axId val="74517120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,11 +605,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="0"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="0" baseline="0"/>
-                  <a:t> of Cores</a:t>
+                  <a:t>Available Cores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -618,14 +615,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56853248"/>
+        <c:crossAx val="74785536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56853248"/>
+        <c:axId val="74785536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +631,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -642,33 +639,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="0"/>
-                  <a:t>Speedup over Stateful Parallelized </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="0" baseline="0"/>
-                  <a:t> Runtime</a:t>
+                  <a:t>Speedups Over 1 Core</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.222222222222223E-2"/>
-              <c:y val="3.7396057976829343E-2"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="#,##0;\-#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="56846208"/>
+        <c:crossAx val="74517120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -679,20 +660,20 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18055555555555555"/>
-          <c:y val="9.5898824748817238E-2"/>
-          <c:w val="0.15913888888888891"/>
-          <c:h val="0.30714077937710027"/>
+          <c:x val="0.19444444444444445"/>
+          <c:y val="0.13349154272382618"/>
+          <c:w val="0.13136111111111112"/>
+          <c:h val="0.33486876640419949"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -701,7 +682,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -969,6 +950,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="3"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1175,11 +1157,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speedups Over</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> 1 Core</a:t>
+                  <a:t>Speedups Over 1 Core</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1232,20 +1210,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1965,407 +1943,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:10">
       <c r="C1" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F1" s="2">
         <v>0.01</v>
       </c>
-      <c r="D1" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I1" s="2">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2">
-        <v>0</v>
-      </c>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:J11" si="0">1+C$1*($B2-1)</f>
+        <f>1+C$1*($B2-1)</f>
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" si="0"/>
+        <f>1+D$1*($B2-1)</f>
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" si="0"/>
+        <f>1+E$1*($B2-1)</f>
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" si="0"/>
+        <f>1+F$1*($B2-1)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B3-1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <f>1+D$1*($B3-1)</f>
+        <v>1.05</v>
+      </c>
+      <c r="E3" s="3">
+        <f>1+E$1*($B3-1)</f>
+        <v>1.03</v>
+      </c>
+      <c r="F3" s="3">
+        <f>1+F$1*($B3-1)</f>
         <v>1.01</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>1.03</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="0"/>
-        <v>1.05</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B4-1)</f>
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="3">
+        <f>1+D$1*($B4-1)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <f>1+E$1*($B4-1)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <f>1+F$1*($B4-1)</f>
         <v>1.03</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B5-1)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <f>1+D$1*($B5-1)</f>
+        <v>1.35</v>
+      </c>
+      <c r="E5" s="3">
+        <f>1+E$1*($B5-1)</f>
+        <v>1.21</v>
+      </c>
+      <c r="F5" s="3">
+        <f>1+F$1*($B5-1)</f>
         <v>1.07</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.21</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.35</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
         <v>16</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B6-1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1+D$1*($B6-1)</f>
+        <v>1.75</v>
+      </c>
+      <c r="E6" s="3">
+        <f>1+E$1*($B6-1)</f>
+        <v>1.45</v>
+      </c>
+      <c r="F6" s="3">
+        <f>1+F$1*($B6-1)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.45</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
         <v>32</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B7-1)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D7" s="3">
+        <f>1+D$1*($B7-1)</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <f>1+E$1*($B7-1)</f>
+        <v>1.93</v>
+      </c>
+      <c r="F7" s="3">
+        <f>1+F$1*($B7-1)</f>
         <v>1.31</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.93</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
         <v>64</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B8-1)</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="D8" s="3">
+        <f>1+D$1*($B8-1)</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E8" s="3">
+        <f>1+E$1*($B8-1)</f>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="F8" s="3">
+        <f>1+F$1*($B8-1)</f>
         <v>1.63</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.8899999999999997</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>16.75</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
         <v>128</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B9-1)</f>
+        <v>13.700000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <f>1+D$1*($B9-1)</f>
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="E9" s="3">
+        <f>1+E$1*($B9-1)</f>
+        <v>4.8100000000000005</v>
+      </c>
+      <c r="F9" s="3">
+        <f>1+F$1*($B9-1)</f>
         <v>2.27</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>4.8100000000000005</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>7.3500000000000005</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>13.700000000000001</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>32.75</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>64.5</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
         <v>256</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B10-1)</f>
+        <v>26.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f>1+D$1*($B10-1)</f>
+        <v>13.75</v>
+      </c>
+      <c r="E10" s="3">
+        <f>1+E$1*($B10-1)</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="F10" s="3">
+        <f>1+F$1*($B10-1)</f>
         <v>3.5500000000000003</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>8.6499999999999986</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>13.75</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>64.75</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>128.5</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
         <v>512</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f>1+C$1*($B11-1)</f>
+        <v>52.1</v>
+      </c>
+      <c r="D11" s="3">
+        <f>1+D$1*($B11-1)</f>
+        <v>26.55</v>
+      </c>
+      <c r="E11" s="3">
+        <f>1+E$1*($B11-1)</f>
+        <v>16.329999999999998</v>
+      </c>
+      <c r="F11" s="3">
+        <f>1+F$1*($B11-1)</f>
         <v>6.11</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>16.329999999999998</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>26.55</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>52.1</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>128.75</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>256.5</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2378,7 +2195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>

--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="0"/>
-                  <a:t>Speedups Over 1 Core</a:t>
+                  <a:t>Speedups of Stateful </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2195,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2915,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7485" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="160" windowWidth="24420" windowHeight="14900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -127,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +144,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,17 +202,27 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="3"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$C$1</c:f>
@@ -223,34 +244,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,28 +283,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>7.300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.700000000000001</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>26.5</c:v>
@@ -294,10 +315,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$D$1</c:f>
@@ -319,34 +341,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,13 +380,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>1.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.35</c:v>
@@ -373,13 +395,13 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>2.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1500000000000004</c:v>
+                  <c:v>4.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3500000000000005</c:v>
+                  <c:v>7.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13.75</c:v>
@@ -390,10 +412,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$E$1</c:f>
@@ -415,34 +438,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,13 +477,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.21</c:v>
@@ -472,24 +495,25 @@
                   <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8899999999999997</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8100000000000005</c:v>
+                  <c:v>4.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6499999999999986</c:v>
+                  <c:v>8.649999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.329999999999998</c:v>
+                  <c:v>16.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$F$1</c:f>
@@ -511,34 +535,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,7 +574,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.01</c:v>
@@ -562,7 +586,7 @@
                   <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>1.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.31</c:v>
@@ -574,7 +598,7 @@
                   <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5500000000000003</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.11</c:v>
@@ -582,17 +606,173 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$32:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.818556831573503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.175709626170181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.975832976750635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.316260467323835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.077721794467667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$32:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.898382036773382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.546682196536036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.418323027358183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.507621221437127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.22284674130144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74517120"/>
-        <c:axId val="74785536"/>
+        <c:smooth val="0"/>
+        <c:axId val="470760808"/>
+        <c:axId val="498310312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74517120"/>
+        <c:axId val="470760808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -601,31 +781,54 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0"/>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>Available Cores</a:t>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:rPr>
+                  <a:t>Cores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74785536"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498310312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74785536"/>
+        <c:axId val="498310312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -635,21 +838,42 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0"/>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>Speedups of Stateful </a:t>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:rPr>
+                  <a:t>Speedups Over 1 Core</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74517120"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470760808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -660,25 +884,27 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19444444444444445"/>
-          <c:y val="0.13349154272382618"/>
-          <c:w val="0.13136111111111112"/>
-          <c:h val="0.33486876640419949"/>
+          <c:x val="0.173156781220104"/>
+          <c:y val="0.113817644454764"/>
+          <c:w val="0.202293577981651"/>
+          <c:h val="0.1674343832021"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -690,14 +916,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="3"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -722,22 +958,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,19 +985,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0169720375710329</c:v>
+                  <c:v>2.016972037571033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0329440828066239</c:v>
+                  <c:v>2.032944082806624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0068541109743387</c:v>
+                  <c:v>2.006854110974339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7838067327633407</c:v>
+                  <c:v>1.783806732763341</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.845011630328085</c:v>
@@ -769,6 +1005,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -794,22 +1031,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,37 +1058,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6714269113736928</c:v>
+                  <c:v>2.671426911373693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2547732117347232</c:v>
+                  <c:v>5.254773211734723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9315984451317991</c:v>
+                  <c:v>9.931598445131799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.659633989825966</c:v>
+                  <c:v>16.65963398982597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.871363325642214</c:v>
+                  <c:v>28.87136332564221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="88132992"/>
-        <c:axId val="88802816"/>
+        <c:smooth val="0"/>
+        <c:axId val="1646264"/>
+        <c:axId val="558299464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88132992"/>
+        <c:axId val="1646264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -870,21 +1117,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88802816"/>
+        <c:crossAx val="558299464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88802816"/>
+        <c:axId val="558299464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -904,11 +1155,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88132992"/>
+        <c:crossAx val="1646264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,26 +1172,41 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2056064436899516"/>
-          <c:y val="0.10146799358413532"/>
-          <c:w val="0.2022935779816514"/>
-          <c:h val="0.16743438320209975"/>
+          <c:x val="0.205606443689952"/>
+          <c:y val="0.101467993584135"/>
+          <c:w val="0.202293577981651"/>
+          <c:h val="0.1674343832021"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Times"/>
+          <a:cs typeface="Times"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -949,20 +1217,30 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="3"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$31</c:f>
+              <c:f>Sheet3!$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -976,65 +1254,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$32:$A$37</c:f>
+              <c:f>Sheet3!$H$9:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$32:$B$37</c:f>
+              <c:f>Sheet3!$I$9:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8185568315735026</c:v>
+                  <c:v>2.016972037571033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1757096261701809</c:v>
+                  <c:v>2.032944082806624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9758329767506355</c:v>
+                  <c:v>2.006854110974339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3162604673238354</c:v>
+                  <c:v>1.783806732763341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0777217944676671</c:v>
+                  <c:v>1.845011630328085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$31</c:f>
+              <c:f>Sheet3!$J$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1048,69 +1327,79 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$32:$A$37</c:f>
+              <c:f>Sheet3!$H$9:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$32:$C$37</c:f>
+              <c:f>Sheet3!$J$9:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8983820367733824</c:v>
+                  <c:v>2.671426911373693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5466821965360356</c:v>
+                  <c:v>5.254773211734723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4183230273581833</c:v>
+                  <c:v>9.931598445131799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5076212214371267</c:v>
+                  <c:v>16.65963398982597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.222846741301439</c:v>
+                  <c:v>28.87136332564221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="127321600"/>
-        <c:axId val="127323520"/>
+        <c:smooth val="0"/>
+        <c:axId val="424223256"/>
+        <c:axId val="424228728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127321600"/>
+        <c:axId val="424223256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1129,27 +1418,31 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127323520"/>
+        <c:crossAx val="424228728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127323520"/>
+        <c:axId val="424228728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1163,11 +1456,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127321600"/>
+        <c:crossAx val="424223256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,10 +1473,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22222222222222221"/>
-          <c:y val="0.17091243802857975"/>
-          <c:w val="0.2022935779816514"/>
-          <c:h val="0.16743438320209975"/>
+          <c:x val="0.205606443689952"/>
+          <c:y val="0.101467993584135"/>
+          <c:w val="0.202293577981651"/>
+          <c:h val="0.1674343832021"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1197,10 +1492,338 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$32:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.818556831573503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.175709626170181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.975832976750635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.316260467323835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.077721794467667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$32:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.898382036773382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.546682196536036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.418323027358183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.507621221437127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.22284674130144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="424265352"/>
+        <c:axId val="424270824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="424265352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:rPr>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424270824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424270824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:rPr>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424265352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.173156781220104"/>
+          <c:y val="0.113817644454764"/>
+          <c:w val="0.202293577981651"/>
+          <c:h val="0.1674343832021"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1212,14 +1835,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1238,6 +1861,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1245,16 +1900,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1275,16 +1930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1590,18 +2245,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1936,18 +2591,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="2:10">
       <c r="C1" s="2">
@@ -1969,19 +2629,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f>1+C$1*($B2-1)</f>
+        <f t="shared" ref="C2:F11" si="0">1+C$1*($B2-1)</f>
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f>1+D$1*($B2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <f>1+E$1*($B2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <f>1+F$1*($B2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J2" s="3"/>
@@ -1991,19 +2651,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <f>1+C$1*($B3-1)</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="3">
-        <f>1+D$1*($B3-1)</f>
+        <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
       <c r="E3" s="3">
-        <f>1+E$1*($B3-1)</f>
+        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
       <c r="F3" s="3">
-        <f>1+F$1*($B3-1)</f>
+        <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
       <c r="J3" s="3"/>
@@ -2013,19 +2673,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <f>1+C$1*($B4-1)</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="D4" s="3">
-        <f>1+D$1*($B4-1)</f>
+        <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="E4" s="3">
-        <f>1+E$1*($B4-1)</f>
+        <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="F4" s="3">
-        <f>1+F$1*($B4-1)</f>
+        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
       <c r="J4" s="3"/>
@@ -2035,19 +2695,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <f>1+C$1*($B5-1)</f>
+        <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="D5" s="3">
-        <f>1+D$1*($B5-1)</f>
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
       <c r="E5" s="3">
-        <f>1+E$1*($B5-1)</f>
+        <f t="shared" si="0"/>
         <v>1.21</v>
       </c>
       <c r="F5" s="3">
-        <f>1+F$1*($B5-1)</f>
+        <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
       <c r="J5" s="3"/>
@@ -2057,19 +2717,19 @@
         <v>16</v>
       </c>
       <c r="C6" s="3">
-        <f>1+C$1*($B6-1)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="D6" s="3">
-        <f>1+D$1*($B6-1)</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="E6" s="3">
-        <f>1+E$1*($B6-1)</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="F6" s="3">
-        <f>1+F$1*($B6-1)</f>
+        <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="J6" s="3"/>
@@ -2079,19 +2739,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="3">
-        <f>1+C$1*($B7-1)</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="D7" s="3">
-        <f>1+D$1*($B7-1)</f>
+        <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="E7" s="3">
-        <f>1+E$1*($B7-1)</f>
+        <f t="shared" si="0"/>
         <v>1.93</v>
       </c>
       <c r="F7" s="3">
-        <f>1+F$1*($B7-1)</f>
+        <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
       <c r="J7" s="3"/>
@@ -2101,19 +2761,19 @@
         <v>64</v>
       </c>
       <c r="C8" s="3">
-        <f>1+C$1*($B8-1)</f>
+        <f t="shared" si="0"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="D8" s="3">
-        <f>1+D$1*($B8-1)</f>
+        <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="E8" s="3">
-        <f>1+E$1*($B8-1)</f>
+        <f t="shared" si="0"/>
         <v>2.8899999999999997</v>
       </c>
       <c r="F8" s="3">
-        <f>1+F$1*($B8-1)</f>
+        <f t="shared" si="0"/>
         <v>1.63</v>
       </c>
       <c r="J8" s="3"/>
@@ -2123,19 +2783,19 @@
         <v>128</v>
       </c>
       <c r="C9" s="3">
-        <f>1+C$1*($B9-1)</f>
+        <f t="shared" si="0"/>
         <v>13.700000000000001</v>
       </c>
       <c r="D9" s="3">
-        <f>1+D$1*($B9-1)</f>
+        <f t="shared" si="0"/>
         <v>7.3500000000000005</v>
       </c>
       <c r="E9" s="3">
-        <f>1+E$1*($B9-1)</f>
+        <f t="shared" si="0"/>
         <v>4.8100000000000005</v>
       </c>
       <c r="F9" s="3">
-        <f>1+F$1*($B9-1)</f>
+        <f t="shared" si="0"/>
         <v>2.27</v>
       </c>
       <c r="J9" s="3"/>
@@ -2145,19 +2805,19 @@
         <v>256</v>
       </c>
       <c r="C10" s="3">
-        <f>1+C$1*($B10-1)</f>
+        <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
       <c r="D10" s="3">
-        <f>1+D$1*($B10-1)</f>
+        <f t="shared" si="0"/>
         <v>13.75</v>
       </c>
       <c r="E10" s="3">
-        <f>1+E$1*($B10-1)</f>
+        <f t="shared" si="0"/>
         <v>8.6499999999999986</v>
       </c>
       <c r="F10" s="3">
-        <f>1+F$1*($B10-1)</f>
+        <f t="shared" si="0"/>
         <v>3.5500000000000003</v>
       </c>
       <c r="J10" s="3"/>
@@ -2167,39 +2827,45 @@
         <v>512</v>
       </c>
       <c r="C11" s="3">
-        <f>1+C$1*($B11-1)</f>
+        <f t="shared" si="0"/>
         <v>52.1</v>
       </c>
       <c r="D11" s="3">
-        <f>1+D$1*($B11-1)</f>
+        <f t="shared" si="0"/>
         <v>26.55</v>
       </c>
       <c r="E11" s="3">
-        <f>1+E$1*($B11-1)</f>
+        <f t="shared" si="0"/>
         <v>16.329999999999998</v>
       </c>
       <c r="F11" s="3">
-        <f>1+F$1*($B11-1)</f>
+        <f t="shared" si="0"/>
         <v>6.11</v>
       </c>
       <c r="J11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -2715,7 +3381,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>9.5076212214371267</v>
+        <v>9.507621221437125</v>
       </c>
       <c r="F29">
         <v>51805147</v>
@@ -2908,20 +3574,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -3024,5 +3695,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="160" windowWidth="24420" windowHeight="14900" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
     <sheet name="Speedups over stateful" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Mpeg-motionestimation" sheetId="5" r:id="rId3"/>
+    <sheet name="FirBank" sheetId="7" r:id="rId4"/>
+    <sheet name="Preprocessing" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
   <si>
     <t>CoarseSerializedBeamFormer</t>
   </si>
@@ -128,12 +131,51 @@
   <si>
     <t>Speedup</t>
   </si>
+  <si>
+    <t>MPEG</t>
+  </si>
+  <si>
+    <t>motionestimation</t>
+  </si>
+  <si>
+    <t>smp1</t>
+  </si>
+  <si>
+    <t>iter()</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>smp2</t>
+  </si>
+  <si>
+    <t>smp4</t>
+  </si>
+  <si>
+    <t>Using iter()</t>
+  </si>
+  <si>
+    <t>Base induction state</t>
+  </si>
+  <si>
+    <t>FIRBank</t>
+  </si>
+  <si>
+    <t>pipeline</t>
+  </si>
+  <si>
+    <t>iter() vs base</t>
+  </si>
+  <si>
+    <t>preprocessing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +195,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -190,6 +238,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,24 +253,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -244,34 +284,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -283,28 +323,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.300000000000001</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.7</c:v>
+                  <c:v>13.700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>26.5</c:v>
@@ -315,7 +355,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -341,34 +380,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,13 +419,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.35</c:v>
@@ -395,13 +434,13 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.55</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.15</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.35</c:v>
+                  <c:v>7.3500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13.75</c:v>
@@ -412,7 +451,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -423,7 +461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3%</c:v>
+                  <c:v>4%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -438,34 +476,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,39 +515,38 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.03</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.09</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.21</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.45</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.93</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.89</c:v>
+                  <c:v>3.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.81</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.649999999999998</c:v>
+                  <c:v>11.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.33</c:v>
+                  <c:v>21.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -535,34 +572,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,7 +611,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.01</c:v>
@@ -586,7 +623,7 @@
                   <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.15</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.31</c:v>
@@ -598,7 +635,7 @@
                   <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.55</c:v>
+                  <c:v>3.5500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.11</c:v>
@@ -606,7 +643,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -632,22 +668,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,27 +695,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.818556831573503</c:v>
+                  <c:v>1.8185568315735026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.175709626170181</c:v>
+                  <c:v>3.1757096261701809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.975832976750635</c:v>
+                  <c:v>4.9758329767506355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.316260467323835</c:v>
+                  <c:v>6.3162604673238354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.077721794467667</c:v>
+                  <c:v>8.0777217944676671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -705,22 +740,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,47 +767,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.898382036773382</c:v>
+                  <c:v>1.8983820367733824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.546682196536036</c:v>
+                  <c:v>3.5466821965360356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.418323027358183</c:v>
+                  <c:v>6.4183230273581833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.507621221437127</c:v>
+                  <c:v>9.5076212214371267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.22284674130144</c:v>
+                  <c:v>14.222846741301439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="470760808"/>
-        <c:axId val="498310312"/>
+        <c:axId val="59992320"/>
+        <c:axId val="60019072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="470760808"/>
+        <c:axId val="59992320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -797,11 +822,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -816,19 +839,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498310312"/>
+        <c:crossAx val="60019072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498310312"/>
+        <c:axId val="60019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -854,11 +875,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -873,7 +892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470760808"/>
+        <c:crossAx val="59992320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -885,9 +904,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.113817644454764"/>
-          <c:w val="0.202293577981651"/>
-          <c:h val="0.1674343832021"/>
+          <c:y val="0.11381764445476399"/>
+          <c:w val="0.20229357798165098"/>
+          <c:h val="0.16743438320210005"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -904,11 +923,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -916,24 +934,13 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -958,22 +965,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,19 +992,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.016972037571033</c:v>
+                  <c:v>2.0169720375710329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.032944082806624</c:v>
+                  <c:v>2.0329440828066239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.006854110974339</c:v>
+                  <c:v>2.0068541109743387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.783806732763341</c:v>
+                  <c:v>1.7838067327633407</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.845011630328085</c:v>
@@ -1005,7 +1012,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1031,22 +1037,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,47 +1064,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.671426911373693</c:v>
+                  <c:v>2.6714269113736928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.254773211734723</c:v>
+                  <c:v>5.2547732117347232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.931598445131799</c:v>
+                  <c:v>9.9315984451317991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.65963398982597</c:v>
+                  <c:v>16.659633989825966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.87136332564221</c:v>
+                  <c:v>28.871363325642214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1646264"/>
-        <c:axId val="558299464"/>
+        <c:axId val="61416960"/>
+        <c:axId val="61418880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1646264"/>
+        <c:axId val="61416960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1117,25 +1113,21 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558299464"/>
+        <c:crossAx val="61418880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558299464"/>
+        <c:axId val="61418880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1155,13 +1147,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1646264"/>
+        <c:crossAx val="61416960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1172,10 +1162,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.205606443689952"/>
+          <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
-          <c:w val="0.202293577981651"/>
-          <c:h val="0.1674343832021"/>
+          <c:w val="0.20229357798165098"/>
+          <c:h val="0.16743438320210005"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1192,7 +1182,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1209,7 +1198,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1217,226 +1206,190 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$I$8</c:f>
+              <c:f>'Mpeg-motionestimation'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stateful</c:v>
+                  <c:v>Using iter()</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$H$9:$H$14</c:f>
+              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$I$9:$I$14</c:f>
+              <c:f>'Mpeg-motionestimation'!$H$3:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.016972037571033</c:v>
+                  <c:v>2.7952213784631463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.032944082806624</c:v>
+                  <c:v>5.6351070570604946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.006854110974339</c:v>
+                  <c:v>10.816438282634932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.783806732763341</c:v>
+                  <c:v>19.031078203344084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.845011630328085</c:v>
+                  <c:v>32.945515091557034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$J$8</c:f>
+              <c:f>'Mpeg-motionestimation'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stateless</c:v>
+                  <c:v>Base induction state</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$H$9:$H$14</c:f>
+              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$J$9:$J$14</c:f>
+              <c:f>'Mpeg-motionestimation'!$I$3:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.671426911373693</c:v>
+                  <c:v>2.005976135339067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.254773211734723</c:v>
+                  <c:v>1.9662993774391202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.931598445131799</c:v>
+                  <c:v>1.9410840538423615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.65963398982597</c:v>
+                  <c:v>1.9803355315207782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.87136332564221</c:v>
+                  <c:v>2.0604373478720701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="424223256"/>
-        <c:axId val="424228728"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="424223256"/>
+        <c:axId val="58495744"/>
+        <c:axId val="55974528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="58495744"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55974528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="55974528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="424228728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="424228728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1456,13 +1409,763 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58495744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20833333333333334"/>
+          <c:y val="0.15702354913969088"/>
+          <c:w val="0.31243066491688537"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FirBank!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Using iter()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FirBank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FirBank!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9146017026498141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6195174180228338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3957182919988922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5038953629721892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.200029828933237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FirBank!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base induction state</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FirBank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FirBank!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7474609160094283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0398301081573558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0788066226188748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7246665407069566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.91099178226054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="88206720"/>
+        <c:axId val="99271808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88206720"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99271808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99271808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88206720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20833333333333343"/>
+          <c:y val="0.15702354913969091"/>
+          <c:w val="0.31243066491688554"/>
+          <c:h val="0.16743438320209986"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Preprocessing!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Using iter()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Preprocessing!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Preprocessing!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9146017026498141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6195174180228338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3957182919988922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5038953629721892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.200029828933237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Preprocessing!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base induction state</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Preprocessing!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Preprocessing!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6248568127672076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8132405422737015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9221864252239376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7846116090648363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7007462754044362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="81212160"/>
+        <c:axId val="81213696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81212160"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81213696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81213696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81212160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20833333333333348"/>
+          <c:y val="0.15702354913969091"/>
+          <c:w val="0.31243066491688576"/>
+          <c:h val="0.16743438320209994"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="3"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$9:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$9:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0169720375710329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0329440828066239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0068541109743387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7838067327633407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.845011630328085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$9:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$9:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6714269113736928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2547732117347232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9315984451317991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.659633989825966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.871363325642214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="56337152"/>
+        <c:axId val="56339072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56337152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="424223256"/>
+        <c:crossAx val="56339072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56339072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56337152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1473,10 +2176,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.205606443689952"/>
+          <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
-          <c:w val="0.202293577981651"/>
-          <c:h val="0.1674343832021"/>
+          <c:w val="0.20229357798165098"/>
+          <c:h val="0.16743438320210005"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1493,36 +2196,24 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1547,22 +2238,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,27 +2265,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.818556831573503</c:v>
+                  <c:v>1.8185568315735026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.175709626170181</c:v>
+                  <c:v>3.1757096261701809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.975832976750635</c:v>
+                  <c:v>4.9758329767506355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.316260467323835</c:v>
+                  <c:v>6.3162604673238354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.077721794467667</c:v>
+                  <c:v>8.0777217944676671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1620,22 +2310,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,47 +2337,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.898382036773382</c:v>
+                  <c:v>1.8983820367733824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.546682196536036</c:v>
+                  <c:v>3.5466821965360356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.418323027358183</c:v>
+                  <c:v>6.4183230273581833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.507621221437127</c:v>
+                  <c:v>9.5076212214371267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.22284674130144</c:v>
+                  <c:v>14.222846741301439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="424265352"/>
-        <c:axId val="424270824"/>
+        <c:axId val="62067072"/>
+        <c:axId val="62068992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="424265352"/>
+        <c:axId val="62067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1712,11 +2392,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1731,19 +2409,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424270824"/>
+        <c:crossAx val="62068992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424270824"/>
+        <c:axId val="62068992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1769,11 +2445,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1788,7 +2462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424265352"/>
+        <c:crossAx val="62067072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1800,9 +2474,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.113817644454764"/>
-          <c:w val="0.202293577981651"/>
-          <c:h val="0.1674343832021"/>
+          <c:y val="0.11381764445476399"/>
+          <c:w val="0.20229357798165098"/>
+          <c:h val="0.16743438320210005"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1819,11 +2493,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1900,6 +2573,111 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>339725</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -1931,15 +2709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2245,18 +3023,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2600,14 +3378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:10">
       <c r="C1" s="2">
@@ -2617,7 +3395,7 @@
         <v>0.05</v>
       </c>
       <c r="E1" s="2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F1" s="2">
         <v>0.01</v>
@@ -2660,7 +3438,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -2682,7 +3460,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
@@ -2704,7 +3482,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
@@ -2726,7 +3504,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
@@ -2748,7 +3526,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>1.93</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
@@ -2770,7 +3548,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>2.8899999999999997</v>
+        <v>3.52</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
@@ -2792,7 +3570,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>4.8100000000000005</v>
+        <v>6.08</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
@@ -2814,7 +3592,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>8.6499999999999986</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
@@ -2836,7 +3614,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>16.329999999999998</v>
+        <v>21.44</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
@@ -2858,14 +3636,1503 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1039878225</v>
+      </c>
+      <c r="C3" s="7">
+        <v>989800320</v>
+      </c>
+      <c r="E3" s="8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>1022550569.2</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>1001870818.8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <f>$E$3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <f>$F$3/F3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f>F3/E3</f>
+        <v>0.97977630542401528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="7">
+        <v>1006072766</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1012270016</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B8:B12)</f>
+        <v>365820960.39999998</v>
+      </c>
+      <c r="F4" s="8">
+        <f>AVERAGE(C8:C12)</f>
+        <v>499443039.80000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
+        <v>2.7952213784631463</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
+        <v>2.005976135339067</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K8" si="2">F4/E4</f>
+        <v>1.3652663293374265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="7">
+        <v>1018844478</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1005293167</v>
+      </c>
+      <c r="E5" s="8">
+        <f>AVERAGE(B13:B17)</f>
+        <v>181460717.40000001</v>
+      </c>
+      <c r="F5" s="8">
+        <f>AVERAGE(C13:C17)</f>
+        <v>509520996.80000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>5.6351070570604946</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9662993774391202</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="2"/>
+        <v>2.8078859386235404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="7">
+        <v>1030684307</v>
+      </c>
+      <c r="C6" s="7">
+        <v>999248750</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B18:B22)</f>
+        <v>94536717.400000006</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(C18:C22)</f>
+        <v>516139843</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>10.816438282634932</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9410840538423615</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="2"/>
+        <v>5.4596759565506128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="7">
+        <v>1017273070</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1002741841</v>
+      </c>
+      <c r="E7" s="8">
+        <f>AVERAGE(B23:B27)</f>
+        <v>53730564.200000003</v>
+      </c>
+      <c r="F7" s="8">
+        <f>AVERAGE(C23:C27)</f>
+        <v>505909631.39999998</v>
+      </c>
+      <c r="G7" s="7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>19.031078203344084</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9803355315207782</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="2"/>
+        <v>9.4156768858198578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
+        <v>361196093</v>
+      </c>
+      <c r="C8" s="7">
+        <v>478632571</v>
+      </c>
+      <c r="E8" s="8">
+        <f>AVERAGE(B28:B32)</f>
+        <v>31037625.800000001</v>
+      </c>
+      <c r="F8" s="8">
+        <f>AVERAGE(C28:C32)</f>
+        <v>486241826.19999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>32.945515091557034</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0604373478720701</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="2"/>
+        <v>15.666205570401585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="7">
+        <v>363045017</v>
+      </c>
+      <c r="C9" s="7">
+        <v>502730277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="7">
+        <v>373577198</v>
+      </c>
+      <c r="C10" s="7">
+        <v>497886795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="7">
+        <v>365097136</v>
+      </c>
+      <c r="C11" s="7">
+        <v>507016710</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="7">
+        <v>366189358</v>
+      </c>
+      <c r="C12" s="7">
+        <v>510948846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7">
+        <v>181779432</v>
+      </c>
+      <c r="C13" s="7">
+        <v>480542667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="7">
+        <v>181907129</v>
+      </c>
+      <c r="C14" s="7">
+        <v>489568362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="7">
+        <v>180835639</v>
+      </c>
+      <c r="C15" s="7">
+        <v>489156059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="7">
+        <v>182972973</v>
+      </c>
+      <c r="C16" s="7">
+        <v>602776205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="7">
+        <v>179808414</v>
+      </c>
+      <c r="C17" s="7">
+        <v>485561691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
+        <v>94648101</v>
+      </c>
+      <c r="C18" s="7">
+        <v>493990280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="7">
+        <v>95581733</v>
+      </c>
+      <c r="C19" s="7">
+        <v>489302434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="7">
+        <v>94659177</v>
+      </c>
+      <c r="C20" s="7">
+        <v>489562684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="7">
+        <v>94880146</v>
+      </c>
+      <c r="C21" s="7">
+        <v>527816606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="7">
+        <v>92914430</v>
+      </c>
+      <c r="C22" s="7">
+        <v>580027211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>53758792</v>
+      </c>
+      <c r="C23" s="7">
+        <v>507353954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="7">
+        <v>53716862</v>
+      </c>
+      <c r="C24" s="7">
+        <v>506145531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="7">
+        <v>53713359</v>
+      </c>
+      <c r="C25" s="7">
+        <v>507643684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="7">
+        <v>53720024</v>
+      </c>
+      <c r="C26" s="7">
+        <v>498917038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="7">
+        <v>53743784</v>
+      </c>
+      <c r="C27" s="7">
+        <v>509487950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7">
+        <v>31056819</v>
+      </c>
+      <c r="C28" s="7">
+        <v>486267188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="7">
+        <v>31032298</v>
+      </c>
+      <c r="C29" s="7">
+        <v>487494715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="7">
+        <v>31029270</v>
+      </c>
+      <c r="C30" s="7">
+        <v>485944862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="7">
+        <v>31026884</v>
+      </c>
+      <c r="C31" s="7">
+        <v>485763126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="7">
+        <v>31042858</v>
+      </c>
+      <c r="C32" s="7">
+        <v>485739240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7">
+        <v>127628533</v>
+      </c>
+      <c r="C3" s="7">
+        <v>127231795</v>
+      </c>
+      <c r="E3" s="8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>125638816.59999999</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>126285937.8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <f>$E$3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <f>$F$3/F3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f>F3/E3</f>
+        <v>1.0051506470493132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="7">
+        <v>124816468</v>
+      </c>
+      <c r="C4" s="7">
+        <v>125850059</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B8:B12)</f>
+        <v>65621385.600000001</v>
+      </c>
+      <c r="F4" s="8">
+        <f>AVERAGE(C8:C12)</f>
+        <v>72268247.400000006</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
+        <v>1.9146017026498141</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
+        <v>1.7474609160094283</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K8" si="2">F4/E4</f>
+        <v>1.1012910919089158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="7">
+        <v>124991346</v>
+      </c>
+      <c r="C5" s="7">
+        <v>125999136</v>
+      </c>
+      <c r="E5" s="8">
+        <f>AVERAGE(B13:B17)</f>
+        <v>34711482.799999997</v>
+      </c>
+      <c r="F5" s="8">
+        <f>AVERAGE(C13:C17)</f>
+        <v>41543748.600000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6195174180228338</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
+        <v>3.0398301081573558</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1968301336870577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="7">
+        <v>125178576</v>
+      </c>
+      <c r="C6" s="7">
+        <v>125853221</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B18:B22)</f>
+        <v>19644207.399999999</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(C18:C22)</f>
+        <v>30961491.800000001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3957182919988922</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
+        <v>4.0788066226188748</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5761130581425242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="7">
+        <v>125579160</v>
+      </c>
+      <c r="C7" s="7">
+        <v>126495478</v>
+      </c>
+      <c r="E7" s="8">
+        <f>AVERAGE(B23:B27)</f>
+        <v>13219718</v>
+      </c>
+      <c r="F7" s="8">
+        <f>AVERAGE(C23:C27)</f>
+        <v>22059964</v>
+      </c>
+      <c r="G7" s="7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>9.5038953629721892</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>5.7246665407069566</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6687166851819382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
+        <v>67229869</v>
+      </c>
+      <c r="C8" s="7">
+        <v>73293008</v>
+      </c>
+      <c r="E8" s="8">
+        <f>AVERAGE(B28:B32)</f>
+        <v>8847785.4000000004</v>
+      </c>
+      <c r="F8" s="8">
+        <f>AVERAGE(C28:C32)</f>
+        <v>18273200.399999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>14.200029828933237</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>6.91099178226054</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="2"/>
+        <v>2.0652852181518777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="7">
+        <v>65505261</v>
+      </c>
+      <c r="C9" s="7">
+        <v>72081979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="7">
+        <v>65832066</v>
+      </c>
+      <c r="C10" s="7">
+        <v>72244653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="7">
+        <v>64813537</v>
+      </c>
+      <c r="C11" s="7">
+        <v>71730126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="7">
+        <v>64726195</v>
+      </c>
+      <c r="C12" s="7">
+        <v>71991471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7">
+        <v>35221490</v>
+      </c>
+      <c r="C13" s="7">
+        <v>42797932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="7">
+        <v>34495814</v>
+      </c>
+      <c r="C14" s="7">
+        <v>41286433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="7">
+        <v>34807027</v>
+      </c>
+      <c r="C15" s="7">
+        <v>41260334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="7">
+        <v>34404766</v>
+      </c>
+      <c r="C16" s="7">
+        <v>41512325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="7">
+        <v>34628317</v>
+      </c>
+      <c r="C17" s="7">
+        <v>40861719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
+        <v>19892268</v>
+      </c>
+      <c r="C18" s="7">
+        <v>28213923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="7">
+        <v>19382320</v>
+      </c>
+      <c r="C19" s="7">
+        <v>30286484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="7">
+        <v>20890953</v>
+      </c>
+      <c r="C20" s="7">
+        <v>31981907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="7">
+        <v>19161329</v>
+      </c>
+      <c r="C21" s="7">
+        <v>32755958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="7">
+        <v>18894167</v>
+      </c>
+      <c r="C22" s="7">
+        <v>31569187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>13580105</v>
+      </c>
+      <c r="C23" s="7">
+        <v>24086273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="7">
+        <v>12762028</v>
+      </c>
+      <c r="C24" s="7">
+        <v>20532953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="7">
+        <v>13313588</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23370040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="7">
+        <v>13464414</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21263446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="7">
+        <v>12978455</v>
+      </c>
+      <c r="C27" s="7">
+        <v>21047108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8616831</v>
+      </c>
+      <c r="C28" s="7">
+        <v>16163451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="7">
+        <v>8449606</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20472453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="7">
+        <v>8435046</v>
+      </c>
+      <c r="C30" s="7">
+        <v>16048153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="7">
+        <v>10276337</v>
+      </c>
+      <c r="C31" s="7">
+        <v>22134810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="7">
+        <v>8461107</v>
+      </c>
+      <c r="C32" s="7">
+        <v>16547135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7">
+        <v>127628533</v>
+      </c>
+      <c r="C3" s="7">
+        <v>292628287</v>
+      </c>
+      <c r="E3" s="8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>125638816.59999999</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>289829699.80000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <f>$E$3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <f>$F$3/F3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f>F3/E3</f>
+        <v>2.3068483741194363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="7">
+        <v>124816468</v>
+      </c>
+      <c r="C4" s="7">
+        <v>289248975</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B8:B12)</f>
+        <v>65621385.600000001</v>
+      </c>
+      <c r="F4" s="8">
+        <f>AVERAGE(C8:C10)</f>
+        <v>178372455.66666666</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
+        <v>1.9146017026498141</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
+        <v>1.6248568127672076</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K8" si="2">F4/E4</f>
+        <v>2.7182061767782399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="7">
+        <v>124991346</v>
+      </c>
+      <c r="C5" s="7">
+        <v>289128520</v>
+      </c>
+      <c r="E5" s="8">
+        <f>AVERAGE(B13:B17)</f>
+        <v>34711482.799999997</v>
+      </c>
+      <c r="F5" s="8">
+        <f>AVERAGE(C11:C13)</f>
+        <v>159840734.33333334</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6195174180228338</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8132405422737015</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="2"/>
+        <v>4.6048374036425015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="7">
+        <v>125178576</v>
+      </c>
+      <c r="C6" s="7">
+        <v>289452009</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B18:B22)</f>
+        <v>19644207.399999999</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(C14:C17)</f>
+        <v>150781264.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3957182919988922</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9221864252239376</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="2"/>
+        <v>7.6756094776315589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="7">
+        <v>125579160</v>
+      </c>
+      <c r="C7" s="7">
+        <v>288690708</v>
+      </c>
+      <c r="E7" s="8">
+        <f>AVERAGE(B23:B27)</f>
+        <v>13219718</v>
+      </c>
+      <c r="F7" s="8">
+        <f>AVERAGE(C18:C21)</f>
+        <v>104082630</v>
+      </c>
+      <c r="G7" s="7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>9.5038953629721892</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7846116090648363</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="2"/>
+        <v>7.8732867070235537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
+        <v>67229869</v>
+      </c>
+      <c r="C8" s="7">
+        <v>182181006</v>
+      </c>
+      <c r="E8" s="8">
+        <f>AVERAGE(B28:B32)</f>
+        <v>8847785.4000000004</v>
+      </c>
+      <c r="F8" s="8">
+        <f>AVERAGE(C22:C24)</f>
+        <v>107314671.66666667</v>
+      </c>
+      <c r="G8" s="7">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>14.200029828933237</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7007462754044362</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="2"/>
+        <v>12.128986725499317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="7">
+        <v>65505261</v>
+      </c>
+      <c r="C9" s="7">
+        <v>174244795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="7">
+        <v>65832066</v>
+      </c>
+      <c r="C10" s="7">
+        <v>178691566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="7">
+        <v>64813537</v>
+      </c>
+      <c r="C11" s="7">
+        <v>174137080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="7">
+        <v>64726195</v>
+      </c>
+      <c r="C12" s="7">
+        <v>176888956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7">
+        <v>35221490</v>
+      </c>
+      <c r="C13" s="7">
+        <v>128496167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="7">
+        <v>34495814</v>
+      </c>
+      <c r="C14" s="7">
+        <v>227144760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="7">
+        <v>34807027</v>
+      </c>
+      <c r="C15" s="7">
+        <v>126856289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="7">
+        <v>34404766</v>
+      </c>
+      <c r="C16" s="7">
+        <v>124392156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="7">
+        <v>34628317</v>
+      </c>
+      <c r="C17" s="7">
+        <v>124731853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
+        <v>19892268</v>
+      </c>
+      <c r="C18" s="7">
+        <v>105344945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="7">
+        <v>19382320</v>
+      </c>
+      <c r="C19" s="7">
+        <v>102228781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="7">
+        <v>20890953</v>
+      </c>
+      <c r="C20" s="7">
+        <v>104215656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="7">
+        <v>19161329</v>
+      </c>
+      <c r="C21" s="7">
+        <v>104541138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="7">
+        <v>18894167</v>
+      </c>
+      <c r="C22" s="7">
+        <v>107110069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>13580105</v>
+      </c>
+      <c r="C23" s="7">
+        <v>108442812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="7">
+        <v>12762028</v>
+      </c>
+      <c r="C24" s="7">
+        <v>106391134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="7">
+        <v>13313588</v>
+      </c>
+      <c r="C25" s="7">
+        <v>108310769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="7">
+        <v>13464414</v>
+      </c>
+      <c r="C26" s="7">
+        <v>104078369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="7">
+        <v>12978455</v>
+      </c>
+      <c r="C27" s="7">
+        <v>103913247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8616831</v>
+      </c>
+      <c r="C28" s="7">
+        <v>97335056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="7">
+        <v>8449606</v>
+      </c>
+      <c r="C29" s="7">
+        <v>97845092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="7">
+        <v>8435046</v>
+      </c>
+      <c r="C30" s="7">
+        <v>97232622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="7">
+        <v>10276337</v>
+      </c>
+      <c r="C31" s="7">
+        <v>95240688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="7">
+        <v>8461107</v>
+      </c>
+      <c r="C32" s="7">
+        <v>94159924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.98219999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -3580,125 +5847,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3.0099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.98219999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2.69E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Preprocessing" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="104">
   <si>
     <t>CoarseSerializedBeamFormer</t>
   </si>
@@ -169,6 +170,174 @@
   </si>
   <si>
     <t>preprocessing</t>
+  </si>
+  <si>
+    <t>==========================</t>
+  </si>
+  <si>
+    <t>firbankpipeline</t>
+  </si>
+  <si>
+    <t>['static</t>
+  </si>
+  <si>
+    <t>inputs=655360</t>
+  </si>
+  <si>
+    <t>outputs=655360</t>
+  </si>
+  <si>
+    <t>ignored=327680</t>
+  </si>
+  <si>
+    <t>seconds=0</t>
+  </si>
+  <si>
+    <t>firbankpipeline-iter</t>
+  </si>
+  <si>
+    <t>inputs=1310720</t>
+  </si>
+  <si>
+    <t>inputs=1296384</t>
+  </si>
+  <si>
+    <t>inputs=1245184</t>
+  </si>
+  <si>
+    <t>inputs=1193984</t>
+  </si>
+  <si>
+    <t>inputs=1241088</t>
+  </si>
+  <si>
+    <t>inputs=1288192</t>
+  </si>
+  <si>
+    <t>inputs=1277952</t>
+  </si>
+  <si>
+    <t>inputs=1294336</t>
+  </si>
+  <si>
+    <t>inputs=1284096</t>
+  </si>
+  <si>
+    <t>inputs=1302528</t>
+  </si>
+  <si>
+    <t>inputs=1318912</t>
+  </si>
+  <si>
+    <t>inputs=1196032</t>
+  </si>
+  <si>
+    <t>inputs=1236992</t>
+  </si>
+  <si>
+    <t>inputs=1298432</t>
+  </si>
+  <si>
+    <t>inputs=2564096</t>
+  </si>
+  <si>
+    <t>inputs=2539520</t>
+  </si>
+  <si>
+    <t>inputs=2543616</t>
+  </si>
+  <si>
+    <t>inputs=2514944</t>
+  </si>
+  <si>
+    <t>inputs=2236416</t>
+  </si>
+  <si>
+    <t>inputs=2187264</t>
+  </si>
+  <si>
+    <t>inputs=2498560</t>
+  </si>
+  <si>
+    <t>inputs=2195456</t>
+  </si>
+  <si>
+    <t>inputs=2285568</t>
+  </si>
+  <si>
+    <t>inputs=4407296</t>
+  </si>
+  <si>
+    <t>inputs=4349952</t>
+  </si>
+  <si>
+    <t>inputs=4399104</t>
+  </si>
+  <si>
+    <t>inputs=4194304</t>
+  </si>
+  <si>
+    <t>inputs=4431872</t>
+  </si>
+  <si>
+    <t>inputs=3407872</t>
+  </si>
+  <si>
+    <t>inputs=3506176</t>
+  </si>
+  <si>
+    <t>inputs=3194880</t>
+  </si>
+  <si>
+    <t>inputs=3145728</t>
+  </si>
+  <si>
+    <t>inputs=4210688</t>
+  </si>
+  <si>
+    <t>inputs=4325376</t>
+  </si>
+  <si>
+    <t>inputs=4259840</t>
+  </si>
+  <si>
+    <t>inputs=3899392</t>
+  </si>
+  <si>
+    <t>inputs=3850240</t>
+  </si>
+  <si>
+    <t>inputs=4440064</t>
+  </si>
+  <si>
+    <t>inputs=6782976</t>
+  </si>
+  <si>
+    <t>inputs=6586368</t>
+  </si>
+  <si>
+    <t>inputs=5996544</t>
+  </si>
+  <si>
+    <t>inputs=6553600</t>
+  </si>
+  <si>
+    <t>inputs=6062080</t>
+  </si>
+  <si>
+    <t>inputs=6225920</t>
+  </si>
+  <si>
+    <t>inputs=7700480</t>
+  </si>
+  <si>
+    <t>inputs=8060928</t>
+  </si>
+  <si>
+    <t>inputs=7602176</t>
+  </si>
+  <si>
+    <t>inputs=8028160</t>
   </si>
 </sst>
 </file>
@@ -788,13 +957,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="59992320"/>
-        <c:axId val="60019072"/>
+        <c:axId val="61504896"/>
+        <c:axId val="61519360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59992320"/>
+        <c:axId val="61504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,14 +1007,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60019072"/>
+        <c:crossAx val="61519360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60019072"/>
+        <c:axId val="61519360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +1060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59992320"/>
+        <c:crossAx val="61504896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -904,9 +1072,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476399"/>
-          <c:w val="0.20229357798165098"/>
-          <c:h val="0.16743438320210005"/>
+          <c:y val="0.11381764445476397"/>
+          <c:w val="0.20229357798165096"/>
+          <c:h val="0.16743438320210011"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -926,7 +1094,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1085,13 +1253,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="61416960"/>
-        <c:axId val="61418880"/>
+        <c:axId val="74340992"/>
+        <c:axId val="74351360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61416960"/>
+        <c:axId val="74340992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,14 +1284,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61418880"/>
+        <c:crossAx val="74351360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61418880"/>
+        <c:axId val="74351360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1318,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61416960"/>
+        <c:crossAx val="74340992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1164,8 +1331,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
-          <c:w val="0.20229357798165098"/>
-          <c:h val="0.16743438320210005"/>
+          <c:w val="0.20229357798165096"/>
+          <c:h val="0.16743438320210011"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1198,7 +1365,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1273,19 +1440,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7952213784631463</c:v>
+                  <c:v>2.6772067490940596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6351070570604946</c:v>
+                  <c:v>5.2702175611566178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.816438282634932</c:v>
+                  <c:v>9.9416298781992314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.031078203344084</c:v>
+                  <c:v>16.7254715226311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.945515091557034</c:v>
+                  <c:v>28.862103191902431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,29 +1518,29 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.005976135339067</c:v>
+                  <c:v>1.9942542564666486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9662993774391202</c:v>
+                  <c:v>2.0016707211033991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9410840538423615</c:v>
+                  <c:v>1.9932259008641109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9803355315207782</c:v>
+                  <c:v>1.7774554824344739</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0604373478720701</c:v>
+                  <c:v>1.8261165712084637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58495744"/>
-        <c:axId val="55974528"/>
+        <c:axId val="76644736"/>
+        <c:axId val="76646272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58495744"/>
+        <c:axId val="76644736"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1381,12 +1548,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55974528"/>
+        <c:crossAx val="76646272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55974528"/>
+        <c:axId val="76646272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1579,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58495744"/>
+        <c:crossAx val="76644736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1423,10 +1590,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333334"/>
-          <c:y val="0.15702354913969088"/>
-          <c:w val="0.31243066491688537"/>
-          <c:h val="0.16743438320209975"/>
+          <c:x val="0.20833333333333337"/>
+          <c:y val="0.15702354913969091"/>
+          <c:w val="0.31243066491688543"/>
+          <c:h val="0.1674343832020998"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1445,7 +1612,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1520,19 +1687,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9146017026498141</c:v>
+                  <c:v>1.8788540244153304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6195174180228338</c:v>
+                  <c:v>3.5793678141666594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3957182919988922</c:v>
+                  <c:v>6.4389441812658426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5038953629721892</c:v>
+                  <c:v>9.4741007025400634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.200029828933237</c:v>
+                  <c:v>14.527941800131842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,29 +1765,29 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7474609160094283</c:v>
+                  <c:v>1.7219992428973245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0398301081573558</c:v>
+                  <c:v>3.0584231974285254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0788066226188748</c:v>
+                  <c:v>4.7389450942550519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7246665407069566</c:v>
+                  <c:v>6.2106376362397349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.91099178226054</c:v>
+                  <c:v>7.9526618952288892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88206720"/>
-        <c:axId val="99271808"/>
+        <c:axId val="76974720"/>
+        <c:axId val="76992896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88206720"/>
+        <c:axId val="76974720"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1628,12 +1795,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99271808"/>
+        <c:crossAx val="76992896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99271808"/>
+        <c:axId val="76992896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1826,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88206720"/>
+        <c:crossAx val="76974720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1670,10 +1837,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333343"/>
+          <c:x val="0.20833333333333345"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688554"/>
-          <c:h val="0.16743438320209986"/>
+          <c:w val="0.31243066491688565"/>
+          <c:h val="0.16743438320209991"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1692,7 +1859,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1767,19 +1934,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9146017026498141</c:v>
+                  <c:v>1.8788540244153304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6195174180228338</c:v>
+                  <c:v>3.5793678141666594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3957182919988922</c:v>
+                  <c:v>6.4389441812658426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5038953629721892</c:v>
+                  <c:v>9.4741007025400634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.200029828933237</c:v>
+                  <c:v>14.527941800131842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,29 +2012,29 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6248568127672076</c:v>
+                  <c:v>1.7219992428973245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8132405422737015</c:v>
+                  <c:v>3.0584231974285254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9221864252239376</c:v>
+                  <c:v>4.7389450942550519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7846116090648363</c:v>
+                  <c:v>6.2106376362397349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7007462754044362</c:v>
+                  <c:v>7.9526618952288892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81212160"/>
-        <c:axId val="81213696"/>
+        <c:axId val="75449472"/>
+        <c:axId val="75451008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81212160"/>
+        <c:axId val="75449472"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1875,12 +2042,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81213696"/>
+        <c:crossAx val="75451008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81213696"/>
+        <c:axId val="75451008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +2073,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81212160"/>
+        <c:crossAx val="75449472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1917,10 +2084,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333348"/>
+          <c:x val="0.20833333333333351"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688576"/>
-          <c:h val="0.16743438320209994"/>
+          <c:w val="0.31243066491688587"/>
+          <c:h val="0.16743438320209997"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1939,7 +2106,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2099,13 +2266,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="56337152"/>
-        <c:axId val="56339072"/>
+        <c:axId val="77053952"/>
+        <c:axId val="77055872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56337152"/>
+        <c:axId val="77053952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,14 +2297,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56339072"/>
+        <c:crossAx val="77055872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56339072"/>
+        <c:axId val="77055872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2331,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56337152"/>
+        <c:crossAx val="77053952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2178,8 +2344,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
-          <c:w val="0.20229357798165098"/>
-          <c:h val="0.16743438320210005"/>
+          <c:w val="0.20229357798165096"/>
+          <c:h val="0.16743438320210011"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2199,7 +2365,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2358,13 +2524,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="62067072"/>
-        <c:axId val="62068992"/>
+        <c:axId val="78229888"/>
+        <c:axId val="78231808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62067072"/>
+        <c:axId val="78229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,14 +2574,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62068992"/>
+        <c:crossAx val="78231808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62068992"/>
+        <c:axId val="78231808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,7 +2627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62067072"/>
+        <c:crossAx val="78229888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2474,9 +2639,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476399"/>
-          <c:w val="0.20229357798165098"/>
-          <c:h val="0.16743438320210005"/>
+          <c:y val="0.11381764445476397"/>
+          <c:w val="0.20229357798165096"/>
+          <c:h val="0.16743438320210011"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2496,7 +2661,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3382,7 +3547,7 @@
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3640,7 +3805,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3693,18 +3858,18 @@
         <v>37</v>
       </c>
       <c r="B3" s="7">
-        <v>1039878225</v>
+        <v>898892627</v>
       </c>
       <c r="C3" s="7">
-        <v>989800320</v>
+        <v>892939801</v>
       </c>
       <c r="E3" s="8">
         <f>AVERAGE(B3:B7)</f>
-        <v>1022550569.2</v>
+        <v>898751953</v>
       </c>
       <c r="F3" s="8">
         <f>AVERAGE(C3:C7)</f>
-        <v>1001870818.8</v>
+        <v>887999980.20000005</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -3719,131 +3884,131 @@
       </c>
       <c r="K3" s="9">
         <f>F3/E3</f>
-        <v>0.97977630542401528</v>
+        <v>0.98803677392398392</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="7">
-        <v>1006072766</v>
+        <v>900598028</v>
       </c>
       <c r="C4" s="7">
-        <v>1012270016</v>
+        <v>885067828</v>
       </c>
       <c r="E4" s="8">
         <f>AVERAGE(B8:B12)</f>
-        <v>365820960.39999998</v>
+        <v>335705097.60000002</v>
       </c>
       <c r="F4" s="8">
         <f>AVERAGE(C8:C12)</f>
-        <v>499443039.80000001</v>
+        <v>445279220.19999999</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
-        <v>2.7952213784631463</v>
+        <v>2.6772067490940596</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
-        <v>2.005976135339067</v>
+        <v>1.9942542564666486</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K8" si="2">F4/E4</f>
-        <v>1.3652663293374265</v>
+        <v>1.3263999366806158</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="7">
-        <v>1018844478</v>
+        <v>898385189</v>
       </c>
       <c r="C5" s="7">
-        <v>1005293167</v>
+        <v>886788898</v>
       </c>
       <c r="E5" s="8">
         <f>AVERAGE(B13:B17)</f>
-        <v>181460717.40000001</v>
+        <v>170534127.40000001</v>
       </c>
       <c r="F5" s="8">
         <f>AVERAGE(C13:C17)</f>
-        <v>509520996.80000001</v>
+        <v>443629399.60000002</v>
       </c>
       <c r="G5" s="7">
         <v>4</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>5.6351070570604946</v>
+        <v>5.2702175611566178</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>1.9662993774391202</v>
+        <v>2.0016707211033991</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="2"/>
-        <v>2.8078859386235404</v>
+        <v>2.6014112621542052</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="7">
-        <v>1030684307</v>
+        <v>897468078</v>
       </c>
       <c r="C6" s="7">
-        <v>999248750</v>
+        <v>887552471</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(B18:B22)</f>
-        <v>94536717.400000006</v>
+        <v>90402878</v>
       </c>
       <c r="F6" s="8">
         <f>AVERAGE(C18:C22)</f>
-        <v>516139843</v>
+        <v>445508951</v>
       </c>
       <c r="G6" s="7">
         <v>8</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>10.816438282634932</v>
+        <v>9.9416298781992314</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>1.9410840538423615</v>
+        <v>1.9932259008641109</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="2"/>
-        <v>5.4596759565506128</v>
+        <v>4.9280394701593462</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="7">
-        <v>1017273070</v>
+        <v>898415843</v>
       </c>
       <c r="C7" s="7">
-        <v>1002741841</v>
+        <v>887650903</v>
       </c>
       <c r="E7" s="8">
         <f>AVERAGE(B23:B27)</f>
-        <v>53730564.200000003</v>
+        <v>53735522.600000001</v>
       </c>
       <c r="F7" s="8">
         <f>AVERAGE(C23:C27)</f>
-        <v>505909631.39999998</v>
+        <v>499590560.19999999</v>
       </c>
       <c r="G7" s="7">
         <v>16</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>19.031078203344084</v>
+        <v>16.7254715226311</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>1.9803355315207782</v>
+        <v>1.7774554824344739</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
-        <v>9.4156768858198578</v>
+        <v>9.2972122727620032</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3851,65 +4016,65 @@
         <v>40</v>
       </c>
       <c r="B8" s="7">
-        <v>361196093</v>
+        <v>335811213</v>
       </c>
       <c r="C8" s="7">
-        <v>478632571</v>
+        <v>447983673</v>
       </c>
       <c r="E8" s="8">
         <f>AVERAGE(B28:B32)</f>
-        <v>31037625.800000001</v>
+        <v>31139517</v>
       </c>
       <c r="F8" s="8">
         <f>AVERAGE(C28:C32)</f>
-        <v>486241826.19999999</v>
+        <v>486277817.19999999</v>
       </c>
       <c r="G8" s="7">
         <v>32</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>32.945515091557034</v>
+        <v>28.862103191902431</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>2.0604373478720701</v>
+        <v>1.8261165712084637</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
-        <v>15.666205570401585</v>
+        <v>15.616100185497418</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="7">
-        <v>363045017</v>
+        <v>336049738</v>
       </c>
       <c r="C9" s="7">
-        <v>502730277</v>
+        <v>445401913</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="7">
-        <v>373577198</v>
+        <v>335465859</v>
       </c>
       <c r="C10" s="7">
-        <v>497886795</v>
+        <v>445088545</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="7">
-        <v>365097136</v>
+        <v>335832412</v>
       </c>
       <c r="C11" s="7">
-        <v>507016710</v>
+        <v>445208379</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="7">
-        <v>366189358</v>
+        <v>335366266</v>
       </c>
       <c r="C12" s="7">
-        <v>510948846</v>
+        <v>442713591</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3917,42 +4082,42 @@
         <v>41</v>
       </c>
       <c r="B13" s="7">
-        <v>181779432</v>
+        <v>170488827</v>
       </c>
       <c r="C13" s="7">
-        <v>480542667</v>
+        <v>442627111</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="7">
-        <v>181907129</v>
+        <v>170614866</v>
       </c>
       <c r="C14" s="7">
-        <v>489568362</v>
+        <v>445106079</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" s="7">
-        <v>180835639</v>
+        <v>170589519</v>
       </c>
       <c r="C15" s="7">
-        <v>489156059</v>
+        <v>442496200</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="7">
-        <v>182972973</v>
+        <v>170507181</v>
       </c>
       <c r="C16" s="7">
-        <v>602776205</v>
+        <v>443089963</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="7">
-        <v>179808414</v>
+        <v>170470244</v>
       </c>
       <c r="C17" s="7">
-        <v>485561691</v>
+        <v>444827645</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3960,42 +4125,42 @@
         <v>21</v>
       </c>
       <c r="B18" s="7">
-        <v>94648101</v>
+        <v>90416084</v>
       </c>
       <c r="C18" s="7">
-        <v>493990280</v>
+        <v>446529318</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="7">
-        <v>95581733</v>
+        <v>90469462</v>
       </c>
       <c r="C19" s="7">
-        <v>489302434</v>
+        <v>444147318</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="7">
-        <v>94659177</v>
+        <v>90390030</v>
       </c>
       <c r="C20" s="7">
-        <v>489562684</v>
+        <v>443508348</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="7">
-        <v>94880146</v>
+        <v>90367891</v>
       </c>
       <c r="C21" s="7">
-        <v>527816606</v>
+        <v>446834268</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="7">
-        <v>92914430</v>
+        <v>90370923</v>
       </c>
       <c r="C22" s="7">
-        <v>580027211</v>
+        <v>446525503</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4003,42 +4168,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="7">
-        <v>53758792</v>
+        <v>53725858</v>
       </c>
       <c r="C23" s="7">
-        <v>507353954</v>
+        <v>499130603</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="7">
-        <v>53716862</v>
+        <v>53751436</v>
       </c>
       <c r="C24" s="7">
-        <v>506145531</v>
+        <v>500768589</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="7">
-        <v>53713359</v>
+        <v>53737713</v>
       </c>
       <c r="C25" s="7">
-        <v>507643684</v>
+        <v>499220190</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="7">
-        <v>53720024</v>
+        <v>53729174</v>
       </c>
       <c r="C26" s="7">
-        <v>498917038</v>
+        <v>499040583</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="7">
-        <v>53743784</v>
+        <v>53733432</v>
       </c>
       <c r="C27" s="7">
-        <v>509487950</v>
+        <v>499792836</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4046,42 +4211,42 @@
         <v>23</v>
       </c>
       <c r="B28" s="7">
-        <v>31056819</v>
+        <v>31021284</v>
       </c>
       <c r="C28" s="7">
-        <v>486267188</v>
+        <v>485768823</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="7">
-        <v>31032298</v>
+        <v>31607613</v>
       </c>
       <c r="C29" s="7">
-        <v>487494715</v>
+        <v>486731080</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="7">
-        <v>31029270</v>
+        <v>31061222</v>
       </c>
       <c r="C30" s="7">
-        <v>485944862</v>
+        <v>487156787</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="7">
-        <v>31026884</v>
+        <v>30988499</v>
       </c>
       <c r="C31" s="7">
-        <v>485763126</v>
+        <v>485909019</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="7">
-        <v>31042858</v>
+        <v>31018967</v>
       </c>
       <c r="C32" s="7">
-        <v>485739240</v>
+        <v>485823377</v>
       </c>
     </row>
   </sheetData>
@@ -4096,7 +4261,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4149,18 +4314,18 @@
         <v>37</v>
       </c>
       <c r="B3" s="7">
-        <v>127628533</v>
+        <v>126300912</v>
       </c>
       <c r="C3" s="7">
-        <v>127231795</v>
+        <v>127139945</v>
       </c>
       <c r="E3" s="8">
         <f>AVERAGE(B3:B7)</f>
-        <v>125638816.59999999</v>
+        <v>124817968.40000001</v>
       </c>
       <c r="F3" s="8">
         <f>AVERAGE(C3:C7)</f>
-        <v>126285937.8</v>
+        <v>126462668</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -4175,131 +4340,131 @@
       </c>
       <c r="K3" s="9">
         <f>F3/E3</f>
-        <v>1.0051506470493132</v>
+        <v>1.0131767855308242</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="7">
-        <v>124816468</v>
+        <v>125486972</v>
       </c>
       <c r="C4" s="7">
-        <v>125850059</v>
+        <v>126889306</v>
       </c>
       <c r="E4" s="8">
         <f>AVERAGE(B8:B12)</f>
-        <v>65621385.600000001</v>
+        <v>66433031.399999999</v>
       </c>
       <c r="F4" s="8">
         <f>AVERAGE(C8:C12)</f>
-        <v>72268247.400000006</v>
+        <v>73439444.599999994</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
-        <v>1.9146017026498141</v>
+        <v>1.8788540244153304</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
-        <v>1.7474609160094283</v>
+        <v>1.7219992428973245</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K8" si="2">F4/E4</f>
-        <v>1.1012910919089158</v>
+        <v>1.1054658059755496</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="7">
-        <v>124991346</v>
+        <v>124613480</v>
       </c>
       <c r="C5" s="7">
-        <v>125999136</v>
+        <v>125974129</v>
       </c>
       <c r="E5" s="8">
         <f>AVERAGE(B13:B17)</f>
-        <v>34711482.799999997</v>
+        <v>34871512.200000003</v>
       </c>
       <c r="F5" s="8">
         <f>AVERAGE(C13:C17)</f>
-        <v>41543748.600000001</v>
+        <v>41348976.200000003</v>
       </c>
       <c r="G5" s="7">
         <v>4</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>3.6195174180228338</v>
+        <v>3.5793678141666594</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>3.0398301081573558</v>
+        <v>3.0584231974285254</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="2"/>
-        <v>1.1968301336870577</v>
+        <v>1.185752311596054</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="7">
-        <v>125178576</v>
+        <v>125211437</v>
       </c>
       <c r="C6" s="7">
-        <v>125853221</v>
+        <v>126380308</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(B18:B22)</f>
-        <v>19644207.399999999</v>
+        <v>19384850.199999999</v>
       </c>
       <c r="F6" s="8">
         <f>AVERAGE(C18:C22)</f>
-        <v>30961491.800000001</v>
+        <v>26685826.800000001</v>
       </c>
       <c r="G6" s="7">
         <v>8</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>6.3957182919988922</v>
+        <v>6.4389441812658426</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>4.0788066226188748</v>
+        <v>4.7389450942550519</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="2"/>
-        <v>1.5761130581425242</v>
+        <v>1.3766331194037291</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="7">
-        <v>125579160</v>
+        <v>122477041</v>
       </c>
       <c r="C7" s="7">
-        <v>126495478</v>
+        <v>125929652</v>
       </c>
       <c r="E7" s="8">
         <f>AVERAGE(B23:B27)</f>
-        <v>13219718</v>
+        <v>13174650.800000001</v>
       </c>
       <c r="F7" s="8">
         <f>AVERAGE(C23:C27)</f>
-        <v>22059964</v>
+        <v>20362268</v>
       </c>
       <c r="G7" s="7">
         <v>16</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>9.5038953629721892</v>
+        <v>9.4741007025400634</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>5.7246665407069566</v>
+        <v>6.2106376362397349</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
-        <v>1.6687166851819382</v>
+        <v>1.5455641526377306</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4307,65 +4472,65 @@
         <v>40</v>
       </c>
       <c r="B8" s="7">
-        <v>67229869</v>
+        <v>67709109</v>
       </c>
       <c r="C8" s="7">
-        <v>73293008</v>
+        <v>74097758</v>
       </c>
       <c r="E8" s="8">
         <f>AVERAGE(B28:B32)</f>
-        <v>8847785.4000000004</v>
+        <v>8591579.5999999996</v>
       </c>
       <c r="F8" s="8">
         <f>AVERAGE(C28:C32)</f>
-        <v>18273200.399999999</v>
+        <v>15901929.4</v>
       </c>
       <c r="G8" s="7">
         <v>32</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>14.200029828933237</v>
+        <v>14.527941800131842</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>6.91099178226054</v>
+        <v>7.9526618952288892</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
-        <v>2.0652852181518777</v>
+        <v>1.8508737787868486</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="7">
-        <v>65505261</v>
+        <v>65857958</v>
       </c>
       <c r="C9" s="7">
-        <v>72081979</v>
+        <v>73448895</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="7">
-        <v>65832066</v>
+        <v>67250596</v>
       </c>
       <c r="C10" s="7">
-        <v>72244653</v>
+        <v>73132928</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="7">
-        <v>64813537</v>
+        <v>65889344</v>
       </c>
       <c r="C11" s="7">
-        <v>71730126</v>
+        <v>73273955</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="7">
-        <v>64726195</v>
+        <v>65458150</v>
       </c>
       <c r="C12" s="7">
-        <v>71991471</v>
+        <v>73243687</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4373,42 +4538,42 @@
         <v>41</v>
       </c>
       <c r="B13" s="7">
-        <v>35221490</v>
+        <v>35568951</v>
       </c>
       <c r="C13" s="7">
-        <v>42797932</v>
+        <v>43073099</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="7">
-        <v>34495814</v>
+        <v>34136726</v>
       </c>
       <c r="C14" s="7">
-        <v>41286433</v>
+        <v>40760901</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" s="7">
-        <v>34807027</v>
+        <v>33828560</v>
       </c>
       <c r="C15" s="7">
-        <v>41260334</v>
+        <v>40794617</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="7">
-        <v>34404766</v>
+        <v>36178894</v>
       </c>
       <c r="C16" s="7">
-        <v>41512325</v>
+        <v>41087950</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="7">
-        <v>34628317</v>
+        <v>34644430</v>
       </c>
       <c r="C17" s="7">
-        <v>40861719</v>
+        <v>41028314</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4416,42 +4581,42 @@
         <v>21</v>
       </c>
       <c r="B18" s="7">
-        <v>19892268</v>
+        <v>20230493</v>
       </c>
       <c r="C18" s="7">
-        <v>28213923</v>
+        <v>27690241</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="7">
-        <v>19382320</v>
+        <v>18920871</v>
       </c>
       <c r="C19" s="7">
-        <v>30286484</v>
+        <v>26647203</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="7">
-        <v>20890953</v>
+        <v>19212352</v>
       </c>
       <c r="C20" s="7">
-        <v>31981907</v>
+        <v>26742960</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="7">
-        <v>19161329</v>
+        <v>19541949</v>
       </c>
       <c r="C21" s="7">
-        <v>32755958</v>
+        <v>26148259</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="7">
-        <v>18894167</v>
+        <v>19018586</v>
       </c>
       <c r="C22" s="7">
-        <v>31569187</v>
+        <v>26200471</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4459,42 +4624,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="7">
-        <v>13580105</v>
+        <v>13862748</v>
       </c>
       <c r="C23" s="7">
-        <v>24086273</v>
+        <v>20958379</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="7">
-        <v>12762028</v>
+        <v>13092113</v>
       </c>
       <c r="C24" s="7">
-        <v>20532953</v>
+        <v>20320169</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="7">
-        <v>13313588</v>
+        <v>13008592</v>
       </c>
       <c r="C25" s="7">
-        <v>23370040</v>
+        <v>20381749</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="7">
-        <v>13464414</v>
+        <v>12896840</v>
       </c>
       <c r="C26" s="7">
-        <v>21263446</v>
+        <v>19969621</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="7">
-        <v>12978455</v>
+        <v>13012961</v>
       </c>
       <c r="C27" s="7">
-        <v>21047108</v>
+        <v>20181422</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4502,42 +4667,42 @@
         <v>23</v>
       </c>
       <c r="B28" s="7">
-        <v>8616831</v>
+        <v>8865024</v>
       </c>
       <c r="C28" s="7">
-        <v>16163451</v>
+        <v>16169432</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="7">
-        <v>8449606</v>
+        <v>8499758</v>
       </c>
       <c r="C29" s="7">
-        <v>20472453</v>
+        <v>15970930</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="7">
-        <v>8435046</v>
+        <v>8491923</v>
       </c>
       <c r="C30" s="7">
-        <v>16048153</v>
+        <v>15817005</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="7">
-        <v>10276337</v>
+        <v>8528232</v>
       </c>
       <c r="C31" s="7">
-        <v>22134810</v>
+        <v>15930286</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="7">
-        <v>8461107</v>
+        <v>8572961</v>
       </c>
       <c r="C32" s="7">
-        <v>16547135</v>
+        <v>15621994</v>
       </c>
     </row>
   </sheetData>
@@ -4552,7 +4717,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4605,18 +4770,18 @@
         <v>37</v>
       </c>
       <c r="B3" s="7">
-        <v>127628533</v>
+        <v>126300912</v>
       </c>
       <c r="C3" s="7">
-        <v>292628287</v>
+        <v>127139945</v>
       </c>
       <c r="E3" s="8">
         <f>AVERAGE(B3:B7)</f>
-        <v>125638816.59999999</v>
+        <v>124817968.40000001</v>
       </c>
       <c r="F3" s="8">
         <f>AVERAGE(C3:C7)</f>
-        <v>289829699.80000001</v>
+        <v>126462668</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -4631,131 +4796,131 @@
       </c>
       <c r="K3" s="9">
         <f>F3/E3</f>
-        <v>2.3068483741194363</v>
+        <v>1.0131767855308242</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="7">
-        <v>124816468</v>
+        <v>125486972</v>
       </c>
       <c r="C4" s="7">
-        <v>289248975</v>
+        <v>126889306</v>
       </c>
       <c r="E4" s="8">
         <f>AVERAGE(B8:B12)</f>
-        <v>65621385.600000001</v>
+        <v>66433031.399999999</v>
       </c>
       <c r="F4" s="8">
-        <f>AVERAGE(C8:C10)</f>
-        <v>178372455.66666666</v>
+        <f>AVERAGE(C8:C12)</f>
+        <v>73439444.599999994</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
-        <v>1.9146017026498141</v>
+        <v>1.8788540244153304</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
-        <v>1.6248568127672076</v>
+        <v>1.7219992428973245</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K8" si="2">F4/E4</f>
-        <v>2.7182061767782399</v>
+        <v>1.1054658059755496</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="7">
-        <v>124991346</v>
+        <v>124613480</v>
       </c>
       <c r="C5" s="7">
-        <v>289128520</v>
+        <v>125974129</v>
       </c>
       <c r="E5" s="8">
         <f>AVERAGE(B13:B17)</f>
-        <v>34711482.799999997</v>
+        <v>34871512.200000003</v>
       </c>
       <c r="F5" s="8">
-        <f>AVERAGE(C11:C13)</f>
-        <v>159840734.33333334</v>
+        <f>AVERAGE(C13:C17)</f>
+        <v>41348976.200000003</v>
       </c>
       <c r="G5" s="7">
         <v>4</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>3.6195174180228338</v>
+        <v>3.5793678141666594</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>1.8132405422737015</v>
+        <v>3.0584231974285254</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="2"/>
-        <v>4.6048374036425015</v>
+        <v>1.185752311596054</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="7">
-        <v>125178576</v>
+        <v>125211437</v>
       </c>
       <c r="C6" s="7">
-        <v>289452009</v>
+        <v>126380308</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(B18:B22)</f>
-        <v>19644207.399999999</v>
+        <v>19384850.199999999</v>
       </c>
       <c r="F6" s="8">
-        <f>AVERAGE(C14:C17)</f>
-        <v>150781264.5</v>
+        <f>AVERAGE(C18:C22)</f>
+        <v>26685826.800000001</v>
       </c>
       <c r="G6" s="7">
         <v>8</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>6.3957182919988922</v>
+        <v>6.4389441812658426</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>1.9221864252239376</v>
+        <v>4.7389450942550519</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="2"/>
-        <v>7.6756094776315589</v>
+        <v>1.3766331194037291</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="7">
-        <v>125579160</v>
+        <v>122477041</v>
       </c>
       <c r="C7" s="7">
-        <v>288690708</v>
+        <v>125929652</v>
       </c>
       <c r="E7" s="8">
         <f>AVERAGE(B23:B27)</f>
-        <v>13219718</v>
+        <v>13174650.800000001</v>
       </c>
       <c r="F7" s="8">
-        <f>AVERAGE(C18:C21)</f>
-        <v>104082630</v>
+        <f>AVERAGE(C23:C27)</f>
+        <v>20362268</v>
       </c>
       <c r="G7" s="7">
         <v>16</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>9.5038953629721892</v>
+        <v>9.4741007025400634</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>2.7846116090648363</v>
+        <v>6.2106376362397349</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
-        <v>7.8732867070235537</v>
+        <v>1.5455641526377306</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4763,65 +4928,65 @@
         <v>40</v>
       </c>
       <c r="B8" s="7">
-        <v>67229869</v>
+        <v>67709109</v>
       </c>
       <c r="C8" s="7">
-        <v>182181006</v>
+        <v>74097758</v>
       </c>
       <c r="E8" s="8">
         <f>AVERAGE(B28:B32)</f>
-        <v>8847785.4000000004</v>
+        <v>8591579.5999999996</v>
       </c>
       <c r="F8" s="8">
-        <f>AVERAGE(C22:C24)</f>
-        <v>107314671.66666667</v>
+        <f>AVERAGE(C28:C32)</f>
+        <v>15901929.4</v>
       </c>
       <c r="G8" s="7">
         <v>32</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>14.200029828933237</v>
+        <v>14.527941800131842</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>2.7007462754044362</v>
+        <v>7.9526618952288892</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
-        <v>12.128986725499317</v>
+        <v>1.8508737787868486</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="7">
-        <v>65505261</v>
+        <v>65857958</v>
       </c>
       <c r="C9" s="7">
-        <v>174244795</v>
+        <v>73448895</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="7">
-        <v>65832066</v>
+        <v>67250596</v>
       </c>
       <c r="C10" s="7">
-        <v>178691566</v>
+        <v>73132928</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="7">
-        <v>64813537</v>
+        <v>65889344</v>
       </c>
       <c r="C11" s="7">
-        <v>174137080</v>
+        <v>73273955</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="7">
-        <v>64726195</v>
+        <v>65458150</v>
       </c>
       <c r="C12" s="7">
-        <v>176888956</v>
+        <v>73243687</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4829,42 +4994,42 @@
         <v>41</v>
       </c>
       <c r="B13" s="7">
-        <v>35221490</v>
+        <v>35568951</v>
       </c>
       <c r="C13" s="7">
-        <v>128496167</v>
+        <v>43073099</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="7">
-        <v>34495814</v>
+        <v>34136726</v>
       </c>
       <c r="C14" s="7">
-        <v>227144760</v>
+        <v>40760901</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" s="7">
-        <v>34807027</v>
+        <v>33828560</v>
       </c>
       <c r="C15" s="7">
-        <v>126856289</v>
+        <v>40794617</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="7">
-        <v>34404766</v>
+        <v>36178894</v>
       </c>
       <c r="C16" s="7">
-        <v>124392156</v>
+        <v>41087950</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="7">
-        <v>34628317</v>
+        <v>34644430</v>
       </c>
       <c r="C17" s="7">
-        <v>124731853</v>
+        <v>41028314</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4872,42 +5037,42 @@
         <v>21</v>
       </c>
       <c r="B18" s="7">
-        <v>19892268</v>
+        <v>20230493</v>
       </c>
       <c r="C18" s="7">
-        <v>105344945</v>
+        <v>27690241</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="7">
-        <v>19382320</v>
+        <v>18920871</v>
       </c>
       <c r="C19" s="7">
-        <v>102228781</v>
+        <v>26647203</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="7">
-        <v>20890953</v>
+        <v>19212352</v>
       </c>
       <c r="C20" s="7">
-        <v>104215656</v>
+        <v>26742960</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="7">
-        <v>19161329</v>
+        <v>19541949</v>
       </c>
       <c r="C21" s="7">
-        <v>104541138</v>
+        <v>26148259</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="7">
-        <v>18894167</v>
+        <v>19018586</v>
       </c>
       <c r="C22" s="7">
-        <v>107110069</v>
+        <v>26200471</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4915,42 +5080,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="7">
-        <v>13580105</v>
+        <v>13862748</v>
       </c>
       <c r="C23" s="7">
-        <v>108442812</v>
+        <v>20958379</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="7">
-        <v>12762028</v>
+        <v>13092113</v>
       </c>
       <c r="C24" s="7">
-        <v>106391134</v>
+        <v>20320169</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="7">
-        <v>13313588</v>
+        <v>13008592</v>
       </c>
       <c r="C25" s="7">
-        <v>108310769</v>
+        <v>20381749</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="7">
-        <v>13464414</v>
+        <v>12896840</v>
       </c>
       <c r="C26" s="7">
-        <v>104078369</v>
+        <v>19969621</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="7">
-        <v>12978455</v>
+        <v>13012961</v>
       </c>
       <c r="C27" s="7">
-        <v>103913247</v>
+        <v>20181422</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4958,42 +5123,42 @@
         <v>23</v>
       </c>
       <c r="B28" s="7">
-        <v>8616831</v>
+        <v>8865024</v>
       </c>
       <c r="C28" s="7">
-        <v>97335056</v>
+        <v>16169432</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="7">
-        <v>8449606</v>
+        <v>8499758</v>
       </c>
       <c r="C29" s="7">
-        <v>97845092</v>
+        <v>15970930</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="7">
-        <v>8435046</v>
+        <v>8491923</v>
       </c>
       <c r="C30" s="7">
-        <v>97232622</v>
+        <v>15817005</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="7">
-        <v>10276337</v>
+        <v>8528232</v>
       </c>
       <c r="C31" s="7">
-        <v>95240688</v>
+        <v>15930286</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="7">
-        <v>8461107</v>
+        <v>8572961</v>
       </c>
       <c r="C32" s="7">
-        <v>94159924</v>
+        <v>15621994</v>
       </c>
     </row>
   </sheetData>
@@ -5847,4 +6012,1375 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I30" sqref="H1:I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1">
+        <v>126300912</v>
+      </c>
+      <c r="I1">
+        <v>127139945</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>125486972</v>
+      </c>
+      <c r="I2">
+        <v>126889306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>124613480</v>
+      </c>
+      <c r="I3">
+        <v>125974129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>125211437</v>
+      </c>
+      <c r="I4">
+        <v>126380308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>122477041</v>
+      </c>
+      <c r="I5">
+        <v>125929652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>67709109</v>
+      </c>
+      <c r="I6">
+        <v>74097758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>65857958</v>
+      </c>
+      <c r="I7">
+        <v>73448895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>67250596</v>
+      </c>
+      <c r="I8">
+        <v>73132928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>65889344</v>
+      </c>
+      <c r="I9">
+        <v>73273955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>65458150</v>
+      </c>
+      <c r="I10">
+        <v>73243687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>35568951</v>
+      </c>
+      <c r="I11">
+        <v>43073099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>34136726</v>
+      </c>
+      <c r="I12">
+        <v>40760901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>33828560</v>
+      </c>
+      <c r="I13">
+        <v>40794617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <v>36178894</v>
+      </c>
+      <c r="I14">
+        <v>41087950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>34644430</v>
+      </c>
+      <c r="I15">
+        <v>41028314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>20230493</v>
+      </c>
+      <c r="I16">
+        <v>27690241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <v>18920871</v>
+      </c>
+      <c r="I17">
+        <v>26647203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>19212352</v>
+      </c>
+      <c r="I18">
+        <v>26742960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <v>19541949</v>
+      </c>
+      <c r="I19">
+        <v>26148259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>19018586</v>
+      </c>
+      <c r="I20">
+        <v>26200471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21">
+        <v>13862748</v>
+      </c>
+      <c r="I21">
+        <v>20958379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22">
+        <v>13092113</v>
+      </c>
+      <c r="I22">
+        <v>20320169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>13008592</v>
+      </c>
+      <c r="I23">
+        <v>20381749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>12896840</v>
+      </c>
+      <c r="I24">
+        <v>19969621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25">
+        <v>13012961</v>
+      </c>
+      <c r="I25">
+        <v>20181422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <v>8865024</v>
+      </c>
+      <c r="I26">
+        <v>16169432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27">
+        <v>8499758</v>
+      </c>
+      <c r="I27">
+        <v>15970930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28">
+        <v>8491923</v>
+      </c>
+      <c r="I28">
+        <v>15817005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29">
+        <v>8528232</v>
+      </c>
+      <c r="I29">
+        <v>15930286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>8572961</v>
+      </c>
+      <c r="I30">
+        <v>15621994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -958,11 +958,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61504896"/>
-        <c:axId val="61519360"/>
+        <c:axId val="67273472"/>
+        <c:axId val="67275776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61504896"/>
+        <c:axId val="67273472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,14 +1007,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61519360"/>
+        <c:crossAx val="67275776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61519360"/>
+        <c:axId val="67275776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61504896"/>
+        <c:crossAx val="67273472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1072,9 +1072,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476397"/>
-          <c:w val="0.20229357798165096"/>
-          <c:h val="0.16743438320210011"/>
+          <c:y val="0.11381764445476396"/>
+          <c:w val="0.20229357798165093"/>
+          <c:h val="0.16743438320210016"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1094,7 +1094,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1254,11 +1254,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74340992"/>
-        <c:axId val="74351360"/>
+        <c:axId val="67370368"/>
+        <c:axId val="67376640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74340992"/>
+        <c:axId val="67370368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,14 +1284,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74351360"/>
+        <c:crossAx val="67376640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74351360"/>
+        <c:axId val="67376640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1318,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74340992"/>
+        <c:crossAx val="67370368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1331,8 +1331,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
-          <c:w val="0.20229357798165096"/>
-          <c:h val="0.16743438320210011"/>
+          <c:w val="0.20229357798165093"/>
+          <c:h val="0.16743438320210016"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1365,7 +1365,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1536,24 +1536,42 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76644736"/>
-        <c:axId val="76646272"/>
+        <c:axId val="68166784"/>
+        <c:axId val="68168320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76644736"/>
+        <c:axId val="68166784"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76646272"/>
+        <c:crossAx val="68168320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76646272"/>
+        <c:axId val="68168320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1597,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76644736"/>
+        <c:crossAx val="68166784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1590,10 +1608,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333337"/>
+          <c:x val="0.20833333333333343"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688543"/>
-          <c:h val="0.1674343832020998"/>
+          <c:w val="0.31243066491688554"/>
+          <c:h val="0.16743438320209986"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1612,7 +1630,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1783,24 +1801,42 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76974720"/>
-        <c:axId val="76992896"/>
+        <c:axId val="68038016"/>
+        <c:axId val="68052096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76974720"/>
+        <c:axId val="68038016"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76992896"/>
+        <c:crossAx val="68052096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76992896"/>
+        <c:axId val="68052096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1862,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76974720"/>
+        <c:crossAx val="68038016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1837,10 +1873,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333345"/>
+          <c:x val="0.20833333333333348"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688565"/>
-          <c:h val="0.16743438320209991"/>
+          <c:w val="0.31243066491688576"/>
+          <c:h val="0.16743438320209994"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1859,7 +1895,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2030,11 +2066,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75449472"/>
-        <c:axId val="75451008"/>
+        <c:axId val="68224896"/>
+        <c:axId val="68226432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75449472"/>
+        <c:axId val="68224896"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2042,12 +2078,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75451008"/>
+        <c:crossAx val="68226432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75451008"/>
+        <c:axId val="68226432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2109,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75449472"/>
+        <c:crossAx val="68224896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2084,10 +2120,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333351"/>
+          <c:x val="0.20833333333333354"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688587"/>
-          <c:h val="0.16743438320209997"/>
+          <c:w val="0.31243066491688593"/>
+          <c:h val="0.16743438320210002"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2106,7 +2142,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2267,11 +2303,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77053952"/>
-        <c:axId val="77055872"/>
+        <c:axId val="68571136"/>
+        <c:axId val="68573056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77053952"/>
+        <c:axId val="68571136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,19 +2328,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77055872"/>
+        <c:crossAx val="68573056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77055872"/>
+        <c:axId val="68573056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,12 +2361,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77053952"/>
+        <c:crossAx val="68571136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2344,8 +2378,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
-          <c:w val="0.20229357798165096"/>
-          <c:h val="0.16743438320210011"/>
+          <c:w val="0.20229357798165093"/>
+          <c:h val="0.16743438320210016"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2365,7 +2399,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2525,11 +2559,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78229888"/>
-        <c:axId val="78231808"/>
+        <c:axId val="68615552"/>
+        <c:axId val="81806848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78229888"/>
+        <c:axId val="68615552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2574,14 +2607,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78231808"/>
+        <c:crossAx val="81806848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78231808"/>
+        <c:axId val="81806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2642,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2627,7 +2659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78229888"/>
+        <c:crossAx val="68615552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2639,9 +2671,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476397"/>
-          <c:w val="0.20229357798165096"/>
-          <c:h val="0.16743438320210011"/>
+          <c:y val="0.11381764445476396"/>
+          <c:w val="0.20229357798165093"/>
+          <c:h val="0.16743438320210016"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2661,7 +2693,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2746,8 +2778,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2781,8 +2813,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3805,7 +3837,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4260,8 +4292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4716,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E3:F8"/>
     </sheetView>
   </sheetViews>

--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -687,31 +687,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04</c:v>
+                  <c:v>1.0394000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>1.1182000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.28</c:v>
+                  <c:v>1.2758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6</c:v>
+                  <c:v>1.591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>2.2214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.52</c:v>
+                  <c:v>3.4821999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.08</c:v>
+                  <c:v>6.0038</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.200000000000001</c:v>
+                  <c:v>11.046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.44</c:v>
+                  <c:v>21.133399999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3592,7 +3592,7 @@
         <v>0.05</v>
       </c>
       <c r="E1" s="2">
-        <v>0.04</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="F1" s="2">
         <v>0.01</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>1.0394000000000001</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>1.1182000000000001</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>1.28</v>
+        <v>1.2758</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>1.591</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>2.2400000000000002</v>
+        <v>2.2214</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>3.52</v>
+        <v>3.4821999999999997</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>6.08</v>
+        <v>6.0038</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>11.200000000000001</v>
+        <v>11.046999999999999</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>21.44</v>
+        <v>21.133399999999998</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4292,7 +4292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -410,6 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,11 +959,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67273472"/>
-        <c:axId val="67275776"/>
+        <c:axId val="58295424"/>
+        <c:axId val="58297728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67273472"/>
+        <c:axId val="58295424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,14 +1008,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67275776"/>
+        <c:crossAx val="58297728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67275776"/>
+        <c:axId val="58297728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67273472"/>
+        <c:crossAx val="58295424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1072,9 +1073,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476396"/>
-          <c:w val="0.20229357798165093"/>
-          <c:h val="0.16743438320210016"/>
+          <c:y val="0.11381764445476394"/>
+          <c:w val="0.2022935779816509"/>
+          <c:h val="0.16743438320210022"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1094,7 +1095,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1254,11 +1255,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67370368"/>
-        <c:axId val="67376640"/>
+        <c:axId val="73273344"/>
+        <c:axId val="73275264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67370368"/>
+        <c:axId val="73273344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,14 +1285,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67376640"/>
+        <c:crossAx val="73275264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67376640"/>
+        <c:axId val="73275264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1319,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67370368"/>
+        <c:crossAx val="73273344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1331,8 +1332,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
-          <c:w val="0.20229357798165093"/>
-          <c:h val="0.16743438320210016"/>
+          <c:w val="0.2022935779816509"/>
+          <c:h val="0.16743438320210022"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1365,7 +1366,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1536,11 +1537,72 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68166784"/>
-        <c:axId val="68168320"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Theoretical Speedups</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Mpeg-motionestimation'!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9743117139019821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9432913205736959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8333777903959554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.953025537110619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.651769002260796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="74458624"/>
+        <c:axId val="74460544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68166784"/>
+        <c:axId val="74458624"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1566,12 +1628,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68168320"/>
+        <c:crossAx val="74460544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68168320"/>
+        <c:axId val="74460544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1659,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68166784"/>
+        <c:crossAx val="74458624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1608,10 +1670,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333343"/>
+          <c:x val="0.20833333333333345"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688554"/>
-          <c:h val="0.16743438320209986"/>
+          <c:w val="0.32047727162938988"/>
+          <c:h val="0.2191868289191124"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1630,7 +1692,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1705,19 +1767,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8788540244153304</c:v>
+                  <c:v>1.9343555210800623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5793678141666594</c:v>
+                  <c:v>3.6447244086907773</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4389441812658426</c:v>
+                  <c:v>6.4843573911028543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4741007025400634</c:v>
+                  <c:v>9.551125571110564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.527941800131842</c:v>
+                  <c:v>14.297470166327786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,29 +1845,90 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7219992428973245</c:v>
+                  <c:v>1.7491123887382136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0584231974285254</c:v>
+                  <c:v>3.045638231832875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7389450942550519</c:v>
+                  <c:v>4.7995661490660275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2106376362397349</c:v>
+                  <c:v>6.1025978249553461</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9526618952288892</c:v>
+                  <c:v>7.8810683159375641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68038016"/>
-        <c:axId val="68052096"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Theoretical Speedups</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FirBank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FirBank!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8180274168544994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4056326708355211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1232864929784379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7092331395039562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.507005157023706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73355648"/>
+        <c:axId val="73357568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68038016"/>
+        <c:axId val="73355648"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1831,12 +1954,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68052096"/>
+        <c:crossAx val="73357568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68052096"/>
+        <c:axId val="73357568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1985,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68038016"/>
+        <c:crossAx val="73355648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1873,10 +1996,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333348"/>
+          <c:x val="0.20833333333333351"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688576"/>
-          <c:h val="0.16743438320209994"/>
+          <c:w val="0.32648622047244097"/>
+          <c:h val="0.2191868289191124"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1895,7 +2018,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2066,11 +2189,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68224896"/>
-        <c:axId val="68226432"/>
+        <c:axId val="73399296"/>
+        <c:axId val="74515200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68224896"/>
+        <c:axId val="73399296"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2078,12 +2201,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68226432"/>
+        <c:crossAx val="74515200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68226432"/>
+        <c:axId val="74515200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2232,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68224896"/>
+        <c:crossAx val="73399296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2120,10 +2243,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333354"/>
+          <c:x val="0.20833333333333356"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688593"/>
-          <c:h val="0.16743438320210002"/>
+          <c:w val="0.31243066491688604"/>
+          <c:h val="0.16743438320210008"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2142,7 +2265,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2303,11 +2426,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68571136"/>
-        <c:axId val="68573056"/>
+        <c:axId val="74732672"/>
+        <c:axId val="74734592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68571136"/>
+        <c:axId val="74732672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,14 +2455,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68573056"/>
+        <c:crossAx val="74734592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68573056"/>
+        <c:axId val="74734592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +2488,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68571136"/>
+        <c:crossAx val="74732672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2378,8 +2501,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
-          <c:w val="0.20229357798165093"/>
-          <c:h val="0.16743438320210016"/>
+          <c:w val="0.2022935779816509"/>
+          <c:h val="0.16743438320210022"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2399,7 +2522,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2559,11 +2682,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68615552"/>
-        <c:axId val="81806848"/>
+        <c:axId val="74797824"/>
+        <c:axId val="74799744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68615552"/>
+        <c:axId val="74797824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,14 +2730,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81806848"/>
+        <c:crossAx val="74799744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81806848"/>
+        <c:axId val="74799744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68615552"/>
+        <c:crossAx val="74797824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2671,9 +2794,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476396"/>
-          <c:w val="0.20229357798165093"/>
-          <c:h val="0.16743438320210016"/>
+          <c:y val="0.11381764445476394"/>
+          <c:w val="0.2022935779816509"/>
+          <c:h val="0.16743438320210022"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2693,7 +2816,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3578,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3834,10 +3957,517 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="6" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="6.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7">
+        <v>898892627</v>
+      </c>
+      <c r="C3" s="7">
+        <v>892939801</v>
+      </c>
+      <c r="E3" s="8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>898751953</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>887999980.20000005</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <f>$E$3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <f>$F$3/F3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f>F3/E3</f>
+        <v>0.98803677392398392</v>
+      </c>
+      <c r="L3" s="9">
+        <f>1+$L$2*(G3-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="7">
+        <v>900598028</v>
+      </c>
+      <c r="C4" s="7">
+        <v>885067828</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B8:B12)</f>
+        <v>335705097.60000002</v>
+      </c>
+      <c r="F4" s="8">
+        <f>AVERAGE(C8:C12)</f>
+        <v>445279220.19999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
+        <v>2.6772067490940596</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
+        <v>1.9942542564666486</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J8" si="2">I4*L4/2</f>
+        <v>1.9743117139019821</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K8" si="3">F4/E4</f>
+        <v>1.3263999366806158</v>
+      </c>
+      <c r="L4" s="9">
+        <f>1+$L$2*(G4-1)</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="7">
+        <v>898385189</v>
+      </c>
+      <c r="C5" s="7">
+        <v>886788898</v>
+      </c>
+      <c r="E5" s="8">
+        <f>AVERAGE(B13:B17)</f>
+        <v>170534127.40000001</v>
+      </c>
+      <c r="F5" s="8">
+        <f>AVERAGE(C13:C17)</f>
+        <v>443629399.60000002</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>5.2702175611566178</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0016707211033991</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9432913205736959</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="3"/>
+        <v>2.6014112621542052</v>
+      </c>
+      <c r="L5" s="9">
+        <f>1+$L$2*(G5-1)</f>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="7">
+        <v>897468078</v>
+      </c>
+      <c r="C6" s="7">
+        <v>887552471</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B18:B22)</f>
+        <v>90402878</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(C18:C22)</f>
+        <v>445508951</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9416298781992314</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9932259008641109</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>7.8333777903959554</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="3"/>
+        <v>4.9280394701593462</v>
+      </c>
+      <c r="L6" s="9">
+        <f>1+$L$2*(G6-1)</f>
+        <v>7.8599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="7">
+        <v>898415843</v>
+      </c>
+      <c r="C7" s="7">
+        <v>887650903</v>
+      </c>
+      <c r="E7" s="8">
+        <f>AVERAGE(B23:B27)</f>
+        <v>53735522.600000001</v>
+      </c>
+      <c r="F7" s="8">
+        <f>AVERAGE(C23:C27)</f>
+        <v>499590560.19999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>16.7254715226311</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7774554824344739</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="2"/>
+        <v>13.953025537110619</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="3"/>
+        <v>9.2972122727620032</v>
+      </c>
+      <c r="L7" s="9">
+        <f>1+$L$2*(G7-1)</f>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
+        <v>335811213</v>
+      </c>
+      <c r="C8" s="7">
+        <v>447983673</v>
+      </c>
+      <c r="E8" s="8">
+        <f>AVERAGE(B28:B32)</f>
+        <v>31139517</v>
+      </c>
+      <c r="F8" s="8">
+        <f>AVERAGE(C28:C32)</f>
+        <v>486277817.19999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>28.862103191902431</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8261165712084637</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>28.651769002260796</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="3"/>
+        <v>15.616100185497418</v>
+      </c>
+      <c r="L8" s="9">
+        <f>1+$L$2*(G8-1)</f>
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="7">
+        <v>336049738</v>
+      </c>
+      <c r="C9" s="7">
+        <v>445401913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="7">
+        <v>335465859</v>
+      </c>
+      <c r="C10" s="7">
+        <v>445088545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="7">
+        <v>335832412</v>
+      </c>
+      <c r="C11" s="7">
+        <v>445208379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="7">
+        <v>335366266</v>
+      </c>
+      <c r="C12" s="7">
+        <v>442713591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7">
+        <v>170488827</v>
+      </c>
+      <c r="C13" s="7">
+        <v>442627111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="7">
+        <v>170614866</v>
+      </c>
+      <c r="C14" s="7">
+        <v>445106079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="7">
+        <v>170589519</v>
+      </c>
+      <c r="C15" s="7">
+        <v>442496200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="7">
+        <v>170507181</v>
+      </c>
+      <c r="C16" s="7">
+        <v>443089963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="7">
+        <v>170470244</v>
+      </c>
+      <c r="C17" s="7">
+        <v>444827645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
+        <v>90416084</v>
+      </c>
+      <c r="C18" s="7">
+        <v>446529318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="7">
+        <v>90469462</v>
+      </c>
+      <c r="C19" s="7">
+        <v>444147318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="7">
+        <v>90390030</v>
+      </c>
+      <c r="C20" s="7">
+        <v>443508348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="7">
+        <v>90367891</v>
+      </c>
+      <c r="C21" s="7">
+        <v>446834268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="7">
+        <v>90370923</v>
+      </c>
+      <c r="C22" s="7">
+        <v>446525503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>53725858</v>
+      </c>
+      <c r="C23" s="7">
+        <v>499130603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="7">
+        <v>53751436</v>
+      </c>
+      <c r="C24" s="7">
+        <v>500768589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="7">
+        <v>53737713</v>
+      </c>
+      <c r="C25" s="7">
+        <v>499220190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="7">
+        <v>53729174</v>
+      </c>
+      <c r="C26" s="7">
+        <v>499040583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="7">
+        <v>53733432</v>
+      </c>
+      <c r="C27" s="7">
+        <v>499792836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7">
+        <v>31021284</v>
+      </c>
+      <c r="C28" s="7">
+        <v>485768823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="7">
+        <v>31607613</v>
+      </c>
+      <c r="C29" s="7">
+        <v>486731080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="7">
+        <v>31061222</v>
+      </c>
+      <c r="C30" s="7">
+        <v>487156787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="7">
+        <v>30988499</v>
+      </c>
+      <c r="C31" s="7">
+        <v>485909019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="7">
+        <v>31018967</v>
+      </c>
+      <c r="C32" s="7">
+        <v>485823377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3854,15 +4484,15 @@
     <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
@@ -3884,24 +4514,27 @@
       <c r="K2" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="10">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="7">
-        <v>898892627</v>
+        <v>314986064</v>
       </c>
       <c r="C3" s="7">
-        <v>892939801</v>
+        <v>318119228</v>
       </c>
       <c r="E3" s="8">
         <f>AVERAGE(B3:B7)</f>
-        <v>898751953</v>
+        <v>314986064</v>
       </c>
       <c r="F3" s="8">
         <f>AVERAGE(C3:C7)</f>
-        <v>887999980.20000005</v>
+        <v>318119228</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -3914,242 +4547,290 @@
         <f>$F$3/F3</f>
         <v>1</v>
       </c>
+      <c r="J3" s="7">
+        <f>I3*L3</f>
+        <v>1</v>
+      </c>
       <c r="K3" s="9">
         <f>F3/E3</f>
-        <v>0.98803677392398392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>1.0099469924485294</v>
+      </c>
+      <c r="L3" s="9">
+        <f>1+$L$2*(G3-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="7">
-        <v>900598028</v>
+        <v>314986064</v>
       </c>
       <c r="C4" s="7">
-        <v>885067828</v>
+        <v>318119228</v>
       </c>
       <c r="E4" s="8">
         <f>AVERAGE(B8:B12)</f>
-        <v>335705097.60000002</v>
+        <v>162837731</v>
       </c>
       <c r="F4" s="8">
         <f>AVERAGE(C8:C12)</f>
-        <v>445279220.19999999</v>
+        <v>181874664</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
-        <v>2.6772067490940596</v>
+        <v>1.9343555210800623</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
-        <v>1.9942542564666486</v>
+        <v>1.7491123887382136</v>
+      </c>
+      <c r="J4" s="7">
+        <f>I4*L4</f>
+        <v>1.8180274168544994</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K8" si="2">F4/E4</f>
-        <v>1.3263999366806158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>1.116907383092927</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" ref="L4:L8" si="3">1+$L$2*(G4-1)</f>
+        <v>1.0394000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="7">
-        <v>898385189</v>
+        <v>314986064</v>
       </c>
       <c r="C5" s="7">
-        <v>886788898</v>
+        <v>318119228</v>
       </c>
       <c r="E5" s="8">
         <f>AVERAGE(B13:B17)</f>
-        <v>170534127.40000001</v>
+        <v>86422464</v>
       </c>
       <c r="F5" s="8">
         <f>AVERAGE(C13:C17)</f>
-        <v>443629399.60000002</v>
+        <v>104450760</v>
       </c>
       <c r="G5" s="7">
         <v>4</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>5.2702175611566178</v>
+        <v>3.6447244086907773</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>2.0016707211033991</v>
+        <v>3.045638231832875</v>
+      </c>
+      <c r="J5" s="7">
+        <f>I5*L5</f>
+        <v>3.4056326708355211</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="2"/>
-        <v>2.6014112621542052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>1.2086065956184726</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1182000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="7">
-        <v>897468078</v>
+        <v>314986064</v>
       </c>
       <c r="C6" s="7">
-        <v>887552471</v>
+        <v>318119228</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(B18:B22)</f>
-        <v>90402878</v>
+        <v>48576296</v>
       </c>
       <c r="F6" s="8">
         <f>AVERAGE(C18:C22)</f>
-        <v>445508951</v>
+        <v>66280830</v>
       </c>
       <c r="G6" s="7">
         <v>8</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>9.9416298781992314</v>
+        <v>6.4843573911028543</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>1.9932259008641109</v>
+        <v>4.7995661490660275</v>
+      </c>
+      <c r="J6" s="7">
+        <f>I6*L6</f>
+        <v>6.1232864929784379</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="2"/>
-        <v>4.9280394701593462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>1.3644685877243501</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" s="7">
-        <v>898415843</v>
+        <v>314986064</v>
       </c>
       <c r="C7" s="7">
-        <v>887650903</v>
+        <v>318119228</v>
       </c>
       <c r="E7" s="8">
         <f>AVERAGE(B23:B27)</f>
-        <v>53735522.600000001</v>
+        <v>32978947</v>
       </c>
       <c r="F7" s="8">
         <f>AVERAGE(C23:C27)</f>
-        <v>499590560.19999999</v>
+        <v>52128493</v>
       </c>
       <c r="G7" s="7">
         <v>16</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>16.7254715226311</v>
+        <v>9.551125571110564</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>1.7774554824344739</v>
+        <v>6.1025978249553461</v>
+      </c>
+      <c r="J7" s="7">
+        <f>I7*L7</f>
+        <v>9.7092331395039562</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
-        <v>9.2972122727620032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>1.580659716030351</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="3"/>
+        <v>1.591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="7">
-        <v>335811213</v>
+        <v>162837731</v>
       </c>
       <c r="C8" s="7">
-        <v>447983673</v>
+        <v>181874664</v>
       </c>
       <c r="E8" s="8">
         <f>AVERAGE(B28:B32)</f>
-        <v>31139517</v>
+        <v>22030895</v>
       </c>
       <c r="F8" s="8">
         <f>AVERAGE(C28:C32)</f>
-        <v>486277817.19999999</v>
+        <v>40364988</v>
       </c>
       <c r="G8" s="7">
         <v>32</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>28.862103191902431</v>
+        <v>14.297470166327786</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>1.8261165712084637</v>
+        <v>7.8810683159375641</v>
+      </c>
+      <c r="J8" s="7">
+        <f>I8*L8</f>
+        <v>17.507005157023706</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
-        <v>15.616100185497418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>1.8321991911812934</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="3"/>
+        <v>2.2214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="7">
-        <v>336049738</v>
+        <v>162837731</v>
       </c>
       <c r="C9" s="7">
-        <v>445401913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>181874664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="7">
-        <v>335465859</v>
+        <v>162837731</v>
       </c>
       <c r="C10" s="7">
-        <v>445088545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>181874664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="7">
-        <v>335832412</v>
+        <v>162837731</v>
       </c>
       <c r="C11" s="7">
-        <v>445208379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>181874664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="7">
-        <v>335366266</v>
+        <v>162837731</v>
       </c>
       <c r="C12" s="7">
-        <v>442713591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>181874664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="7">
-        <v>170488827</v>
+        <v>86422464</v>
       </c>
       <c r="C13" s="7">
-        <v>442627111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>104450760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="7">
-        <v>170614866</v>
+        <v>86422464</v>
       </c>
       <c r="C14" s="7">
-        <v>445106079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>104450760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="B15" s="7">
-        <v>170589519</v>
+        <v>86422464</v>
       </c>
       <c r="C15" s="7">
-        <v>442496200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>104450760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="7">
-        <v>170507181</v>
+        <v>86422464</v>
       </c>
       <c r="C16" s="7">
-        <v>443089963</v>
+        <v>104450760</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="7">
-        <v>170470244</v>
+        <v>86422464</v>
       </c>
       <c r="C17" s="7">
-        <v>444827645</v>
+        <v>104450760</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4157,42 +4838,42 @@
         <v>21</v>
       </c>
       <c r="B18" s="7">
-        <v>90416084</v>
+        <v>48576296</v>
       </c>
       <c r="C18" s="7">
-        <v>446529318</v>
+        <v>66280830</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="7">
-        <v>90469462</v>
+        <v>48576296</v>
       </c>
       <c r="C19" s="7">
-        <v>444147318</v>
+        <v>66280830</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="7">
-        <v>90390030</v>
+        <v>48576296</v>
       </c>
       <c r="C20" s="7">
-        <v>443508348</v>
+        <v>66280830</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="7">
-        <v>90367891</v>
+        <v>48576296</v>
       </c>
       <c r="C21" s="7">
-        <v>446834268</v>
+        <v>66280830</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="7">
-        <v>90370923</v>
+        <v>48576296</v>
       </c>
       <c r="C22" s="7">
-        <v>446525503</v>
+        <v>66280830</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4200,42 +4881,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="7">
-        <v>53725858</v>
+        <v>32978947</v>
       </c>
       <c r="C23" s="7">
-        <v>499130603</v>
+        <v>52128493</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="7">
-        <v>53751436</v>
+        <v>32978947</v>
       </c>
       <c r="C24" s="7">
-        <v>500768589</v>
+        <v>52128493</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="7">
-        <v>53737713</v>
+        <v>32978947</v>
       </c>
       <c r="C25" s="7">
-        <v>499220190</v>
+        <v>52128493</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="7">
-        <v>53729174</v>
+        <v>32978947</v>
       </c>
       <c r="C26" s="7">
-        <v>499040583</v>
+        <v>52128493</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="7">
-        <v>53733432</v>
+        <v>32978947</v>
       </c>
       <c r="C27" s="7">
-        <v>499792836</v>
+        <v>52128493</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4243,498 +4924,42 @@
         <v>23</v>
       </c>
       <c r="B28" s="7">
-        <v>31021284</v>
+        <v>22030895</v>
       </c>
       <c r="C28" s="7">
-        <v>485768823</v>
+        <v>40364988</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="7">
-        <v>31607613</v>
+        <v>22030895</v>
       </c>
       <c r="C29" s="7">
-        <v>486731080</v>
+        <v>40364988</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="7">
-        <v>31061222</v>
+        <v>22030895</v>
       </c>
       <c r="C30" s="7">
-        <v>487156787</v>
+        <v>40364988</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="7">
-        <v>30988499</v>
+        <v>22030895</v>
       </c>
       <c r="C31" s="7">
-        <v>485909019</v>
+        <v>40364988</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="7">
-        <v>31018967</v>
+        <v>22030895</v>
       </c>
       <c r="C32" s="7">
-        <v>485823377</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="7">
-        <v>126300912</v>
-      </c>
-      <c r="C3" s="7">
-        <v>127139945</v>
-      </c>
-      <c r="E3" s="8">
-        <f>AVERAGE(B3:B7)</f>
-        <v>124817968.40000001</v>
-      </c>
-      <c r="F3" s="8">
-        <f>AVERAGE(C3:C7)</f>
-        <v>126462668</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
-        <f>$E$3/E3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <f>$F$3/F3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="9">
-        <f>F3/E3</f>
-        <v>1.0131767855308242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="7">
-        <v>125486972</v>
-      </c>
-      <c r="C4" s="7">
-        <v>126889306</v>
-      </c>
-      <c r="E4" s="8">
-        <f>AVERAGE(B8:B12)</f>
-        <v>66433031.399999999</v>
-      </c>
-      <c r="F4" s="8">
-        <f>AVERAGE(C8:C12)</f>
-        <v>73439444.599999994</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
-        <v>1.8788540244153304</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
-        <v>1.7219992428973245</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K8" si="2">F4/E4</f>
-        <v>1.1054658059755496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="7">
-        <v>124613480</v>
-      </c>
-      <c r="C5" s="7">
-        <v>125974129</v>
-      </c>
-      <c r="E5" s="8">
-        <f>AVERAGE(B13:B17)</f>
-        <v>34871512.200000003</v>
-      </c>
-      <c r="F5" s="8">
-        <f>AVERAGE(C13:C17)</f>
-        <v>41348976.200000003</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>3.5793678141666594</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>3.0584231974285254</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="2"/>
-        <v>1.185752311596054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="7">
-        <v>125211437</v>
-      </c>
-      <c r="C6" s="7">
-        <v>126380308</v>
-      </c>
-      <c r="E6" s="8">
-        <f>AVERAGE(B18:B22)</f>
-        <v>19384850.199999999</v>
-      </c>
-      <c r="F6" s="8">
-        <f>AVERAGE(C18:C22)</f>
-        <v>26685826.800000001</v>
-      </c>
-      <c r="G6" s="7">
-        <v>8</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>6.4389441812658426</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7389450942550519</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="2"/>
-        <v>1.3766331194037291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="7">
-        <v>122477041</v>
-      </c>
-      <c r="C7" s="7">
-        <v>125929652</v>
-      </c>
-      <c r="E7" s="8">
-        <f>AVERAGE(B23:B27)</f>
-        <v>13174650.800000001</v>
-      </c>
-      <c r="F7" s="8">
-        <f>AVERAGE(C23:C27)</f>
-        <v>20362268</v>
-      </c>
-      <c r="G7" s="7">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>9.4741007025400634</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>6.2106376362397349</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="2"/>
-        <v>1.5455641526377306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7">
-        <v>67709109</v>
-      </c>
-      <c r="C8" s="7">
-        <v>74097758</v>
-      </c>
-      <c r="E8" s="8">
-        <f>AVERAGE(B28:B32)</f>
-        <v>8591579.5999999996</v>
-      </c>
-      <c r="F8" s="8">
-        <f>AVERAGE(C28:C32)</f>
-        <v>15901929.4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>32</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>14.527941800131842</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="1"/>
-        <v>7.9526618952288892</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="2"/>
-        <v>1.8508737787868486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="7">
-        <v>65857958</v>
-      </c>
-      <c r="C9" s="7">
-        <v>73448895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="7">
-        <v>67250596</v>
-      </c>
-      <c r="C10" s="7">
-        <v>73132928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="7">
-        <v>65889344</v>
-      </c>
-      <c r="C11" s="7">
-        <v>73273955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="7">
-        <v>65458150</v>
-      </c>
-      <c r="C12" s="7">
-        <v>73243687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7">
-        <v>35568951</v>
-      </c>
-      <c r="C13" s="7">
-        <v>43073099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="7">
-        <v>34136726</v>
-      </c>
-      <c r="C14" s="7">
-        <v>40760901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="7">
-        <v>33828560</v>
-      </c>
-      <c r="C15" s="7">
-        <v>40794617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="7">
-        <v>36178894</v>
-      </c>
-      <c r="C16" s="7">
-        <v>41087950</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="7">
-        <v>34644430</v>
-      </c>
-      <c r="C17" s="7">
-        <v>41028314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="7">
-        <v>20230493</v>
-      </c>
-      <c r="C18" s="7">
-        <v>27690241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="7">
-        <v>18920871</v>
-      </c>
-      <c r="C19" s="7">
-        <v>26647203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="7">
-        <v>19212352</v>
-      </c>
-      <c r="C20" s="7">
-        <v>26742960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="7">
-        <v>19541949</v>
-      </c>
-      <c r="C21" s="7">
-        <v>26148259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="7">
-        <v>19018586</v>
-      </c>
-      <c r="C22" s="7">
-        <v>26200471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7">
-        <v>13862748</v>
-      </c>
-      <c r="C23" s="7">
-        <v>20958379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="7">
-        <v>13092113</v>
-      </c>
-      <c r="C24" s="7">
-        <v>20320169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="7">
-        <v>13008592</v>
-      </c>
-      <c r="C25" s="7">
-        <v>20381749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="7">
-        <v>12896840</v>
-      </c>
-      <c r="C26" s="7">
-        <v>19969621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="7">
-        <v>13012961</v>
-      </c>
-      <c r="C27" s="7">
-        <v>20181422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7">
-        <v>8865024</v>
-      </c>
-      <c r="C28" s="7">
-        <v>16169432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="7">
-        <v>8499758</v>
-      </c>
-      <c r="C29" s="7">
-        <v>15970930</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="7">
-        <v>8491923</v>
-      </c>
-      <c r="C30" s="7">
-        <v>15817005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="7">
-        <v>8528232</v>
-      </c>
-      <c r="C31" s="7">
-        <v>15930286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="7">
-        <v>8572961</v>
-      </c>
-      <c r="C32" s="7">
-        <v>15621994</v>
+        <v>40364988</v>
       </c>
     </row>
   </sheetData>

--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -2,19 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
     <sheet name="Speedups over stateful" sheetId="2" r:id="rId2"/>
     <sheet name="Mpeg-motionestimation" sheetId="5" r:id="rId3"/>
-    <sheet name="FirBank" sheetId="7" r:id="rId4"/>
-    <sheet name="Preprocessing" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
+    <sheet name="Firbank" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="103">
   <si>
     <t>CoarseSerializedBeamFormer</t>
   </si>
@@ -167,9 +166,6 @@
   </si>
   <si>
     <t>iter() vs base</t>
-  </si>
-  <si>
-    <t>preprocessing</t>
   </si>
   <si>
     <t>==========================</t>
@@ -425,14 +421,13 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$C$1</c:f>
@@ -527,8 +522,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$D$1</c:f>
@@ -623,15 +618,15 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4%</c:v>
+                  <c:v>3%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -688,39 +683,39 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0394000000000001</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1182000000000001</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2758</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.591</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2214</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4821999999999997</c:v>
+                  <c:v>2.8899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0038</c:v>
+                  <c:v>4.8100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.046999999999999</c:v>
+                  <c:v>8.6499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.133399999999998</c:v>
+                  <c:v>16.329999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Speedups over stateful'!$F$1</c:f>
@@ -814,6 +809,1038 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="99978624"/>
+        <c:axId val="100039680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99978624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Available Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100039680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100039680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup of Parallelizing Induction Variable State</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99978624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24166666666666667"/>
+          <c:y val="0.24460265383493729"/>
+          <c:w val="0.19484733158355202"/>
+          <c:h val="0.22532079323417906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Mpeg-motionestimation'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Using iter()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Mpeg-motionestimation'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6772067490940596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2702175611566178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9416298781992314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.7254715226311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.862103191902431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Mpeg-motionestimation'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base induction state</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Mpeg-motionestimation'!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9942542564666486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0016707211033991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9932259008641109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7774554824344739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8261165712084637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Theoretical Speedups</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Mpeg-motionestimation'!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9743117139019821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9432913205736959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8333777903959554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.953025537110619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.651769002260796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="75442432"/>
+        <c:axId val="75456896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75442432"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75456896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75456896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75442432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20833333333333348"/>
+          <c:y val="0.15702354913969091"/>
+          <c:w val="0.32047727162938994"/>
+          <c:h val="0.21918682891911237"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firbank!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Using iter()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Firbank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Firbank!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9343555210800623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6447244086907773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4843573911028543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.551125571110564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.297470166327786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firbank!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base induction state</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Firbank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Firbank!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7491123887382136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.045638231832875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7995661490660275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1025978249553461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8810683159375641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Theoretical Speedups</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Firbank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Firbank!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8180274168544994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4056326708355211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1232864929784379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7092331395039562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.507005157023706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="82059264"/>
+        <c:axId val="82061184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82059264"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82061184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82061184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82059264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20833333333333354"/>
+          <c:y val="0.15702354913969091"/>
+          <c:w val="0.32047727162939016"/>
+          <c:h val="0.21918682891911237"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="3"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$9:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$9:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0169720375710329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0329440828066239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0068541109743387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7838067327633407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.845011630328085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stateless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$9:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$9:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6714269113736928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2547732117347232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9315984451317991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.659633989825966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.871363325642214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="75127424"/>
+        <c:axId val="75154176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75127424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75154176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75154176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75127424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20560644368995201"/>
+          <c:y val="0.101467993584135"/>
+          <c:w val="0.20229357798165087"/>
+          <c:h val="0.16743438320210027"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -959,11 +1986,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58295424"/>
-        <c:axId val="58297728"/>
+        <c:axId val="77285632"/>
+        <c:axId val="77300096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58295424"/>
+        <c:axId val="77285632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,14 +2035,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58297728"/>
+        <c:crossAx val="77300096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58297728"/>
+        <c:axId val="77300096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +2072,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -1061,7 +2088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58295424"/>
+        <c:crossAx val="77285632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1073,9 +2100,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476394"/>
-          <c:w val="0.2022935779816509"/>
-          <c:h val="0.16743438320210022"/>
+          <c:y val="0.11381764445476393"/>
+          <c:w val="0.20229357798165087"/>
+          <c:h val="0.16743438320210027"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1095,1728 +2122,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stateful</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$H$9:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$I$9:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0169720375710329</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0329440828066239</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0068541109743387</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7838067327633407</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.845011630328085</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$J$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stateless</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$H$9:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$J$9:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6714269113736928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2547732117347232</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9315984451317991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.659633989825966</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.871363325642214</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="73273344"/>
-        <c:axId val="73275264"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="73273344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73275264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="73275264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedups Over 1 Core</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73273344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20560644368995201"/>
-          <c:y val="0.101467993584135"/>
-          <c:w val="0.2022935779816509"/>
-          <c:h val="0.16743438320210022"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400">
-          <a:latin typeface="Times"/>
-          <a:cs typeface="Times"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mpeg-motionestimation'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Using iter()</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Mpeg-motionestimation'!$H$3:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6772067490940596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2702175611566178</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9416298781992314</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.7254715226311</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.862103191902431</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mpeg-motionestimation'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base induction state</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Mpeg-motionestimation'!$I$3:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9942542564666486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0016707211033991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9932259008641109</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7774554824344739</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8261165712084637</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Theoretical Speedups</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Mpeg-motionestimation'!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Mpeg-motionestimation'!$J$3:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9743117139019821</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9432913205736959</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8333777903959554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.953025537110619</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.651769002260796</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="74458624"/>
-        <c:axId val="74460544"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="74458624"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74460544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="74460544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedups Over 1 Core</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74458624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20833333333333345"/>
-          <c:y val="0.15702354913969091"/>
-          <c:w val="0.32047727162938988"/>
-          <c:h val="0.2191868289191124"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FirBank!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Using iter()</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>FirBank!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>FirBank!$H$3:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9343555210800623</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6447244086907773</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4843573911028543</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.551125571110564</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.297470166327786</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FirBank!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base induction state</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>FirBank!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>FirBank!$I$3:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7491123887382136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.045638231832875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7995661490660275</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1025978249553461</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.8810683159375641</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Theoretical Speedups</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>FirBank!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>FirBank!$J$3:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8180274168544994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4056326708355211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1232864929784379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.7092331395039562</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.507005157023706</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="73355648"/>
-        <c:axId val="73357568"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="73355648"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73357568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="73357568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedups Over 1 Core</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73355648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20833333333333351"/>
-          <c:y val="0.15702354913969091"/>
-          <c:w val="0.32648622047244097"/>
-          <c:h val="0.2191868289191124"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
     <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Preprocessing!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Using iter()</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Preprocessing!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Preprocessing!$H$3:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8788540244153304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5793678141666594</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4389441812658426</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4741007025400634</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.527941800131842</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Preprocessing!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base induction state</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Preprocessing!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Preprocessing!$I$3:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7219992428973245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0584231974285254</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7389450942550519</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2106376362397349</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9526618952288892</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="73399296"/>
-        <c:axId val="74515200"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="73399296"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74515200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="74515200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedups Over 1 Core</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73399296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20833333333333356"/>
-          <c:y val="0.15702354913969091"/>
-          <c:w val="0.31243066491688604"/>
-          <c:h val="0.16743438320210008"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="3"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stateful</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$H$9:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$I$9:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0169720375710329</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0329440828066239</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0068541109743387</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7838067327633407</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.845011630328085</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$J$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stateless</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$H$9:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$J$9:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6714269113736928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2547732117347232</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9315984451317991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.659633989825966</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.871363325642214</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="74732672"/>
-        <c:axId val="74734592"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="74732672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74734592"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="74734592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedups Over 1 Core</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74732672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20560644368995201"/>
-          <c:y val="0.101467993584135"/>
-          <c:w val="0.2022935779816509"/>
-          <c:h val="0.16743438320210022"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stateful</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$A$32:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$32:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8185568315735026</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1757096261701809</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9758329767506355</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3162604673238354</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0777217944676671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stateless</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$A$32:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$C$32:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8983820367733824</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5466821965360356</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4183230273581833</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5076212214371267</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.222846741301439</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="74797824"/>
-        <c:axId val="74799744"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="74797824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400">
-                    <a:latin typeface="Times"/>
-                    <a:cs typeface="Times"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:latin typeface="Times"/>
-                    <a:cs typeface="Times"/>
-                  </a:rPr>
-                  <a:t>Cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400">
-                <a:latin typeface="Times"/>
-                <a:cs typeface="Times"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74799744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="74799744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400">
-                    <a:latin typeface="Times"/>
-                    <a:cs typeface="Times"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:latin typeface="Times"/>
-                    <a:cs typeface="Times"/>
-                  </a:rPr>
-                  <a:t>Speedups Over 1 Core</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400">
-                <a:latin typeface="Times"/>
-                <a:cs typeface="Times"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74797824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476394"/>
-          <c:w val="0.2022935779816509"/>
-          <c:h val="0.16743438320210022"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2827,19 +2133,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2854,38 +2160,79 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:ext cx="895351" cy="265981"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495924" y="771525"/>
+          <a:ext cx="895351" cy="265981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="27432" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Work in Induction </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Variable Filters</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2960,41 +2307,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3344,6 +2656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -3699,10 +3012,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3715,7 +3029,7 @@
         <v>0.05</v>
       </c>
       <c r="E1" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F1" s="2">
         <v>0.01</v>
@@ -3758,7 +3072,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>1.0394000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -3780,7 +3094,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>1.1182000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
@@ -3802,7 +3116,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>1.2758</v>
+        <v>1.21</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
@@ -3824,7 +3138,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>1.591</v>
+        <v>1.45</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
@@ -3846,7 +3160,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>2.2214</v>
+        <v>1.93</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
@@ -3868,7 +3182,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>3.4821999999999997</v>
+        <v>2.8899999999999997</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
@@ -3890,7 +3204,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>6.0038</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
@@ -3912,7 +3226,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>11.046999999999999</v>
+        <v>8.6499999999999986</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
@@ -3934,7 +3248,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>21.133399999999998</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
@@ -3957,10 +3271,517 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="6" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="6.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7">
+        <v>898892627</v>
+      </c>
+      <c r="C3" s="7">
+        <v>892939801</v>
+      </c>
+      <c r="E3" s="8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>898751953</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>887999980.20000005</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <f>$E$3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <f>$F$3/F3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f>F3/E3</f>
+        <v>0.98803677392398392</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L8" si="0">1+$L$2*(G3-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="7">
+        <v>900598028</v>
+      </c>
+      <c r="C4" s="7">
+        <v>885067828</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B8:B12)</f>
+        <v>335705097.60000002</v>
+      </c>
+      <c r="F4" s="8">
+        <f>AVERAGE(C8:C12)</f>
+        <v>445279220.19999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H8" si="1">$E$3/E4</f>
+        <v>2.6772067490940596</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I8" si="2">$F$3/F4</f>
+        <v>1.9942542564666486</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J8" si="3">I4*L4/2</f>
+        <v>1.9743117139019821</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K8" si="4">F4/E4</f>
+        <v>1.3263999366806158</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="7">
+        <v>898385189</v>
+      </c>
+      <c r="C5" s="7">
+        <v>886788898</v>
+      </c>
+      <c r="E5" s="8">
+        <f>AVERAGE(B13:B17)</f>
+        <v>170534127.40000001</v>
+      </c>
+      <c r="F5" s="8">
+        <f>AVERAGE(C13:C17)</f>
+        <v>443629399.60000002</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>5.2702175611566178</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="2"/>
+        <v>2.0016707211033991</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="3"/>
+        <v>3.9432913205736959</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="4"/>
+        <v>2.6014112621542052</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="0"/>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="7">
+        <v>897468078</v>
+      </c>
+      <c r="C6" s="7">
+        <v>887552471</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B18:B22)</f>
+        <v>90402878</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(C18:C22)</f>
+        <v>445508951</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>9.9416298781992314</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9932259008641109</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="3"/>
+        <v>7.8333777903959554</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="4"/>
+        <v>4.9280394701593462</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>7.8599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="7">
+        <v>898415843</v>
+      </c>
+      <c r="C7" s="7">
+        <v>887650903</v>
+      </c>
+      <c r="E7" s="8">
+        <f>AVERAGE(B23:B27)</f>
+        <v>53735522.600000001</v>
+      </c>
+      <c r="F7" s="8">
+        <f>AVERAGE(C23:C27)</f>
+        <v>499590560.19999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="1"/>
+        <v>16.7254715226311</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7774554824344739</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="3"/>
+        <v>13.953025537110619</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="4"/>
+        <v>9.2972122727620032</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
+        <v>335811213</v>
+      </c>
+      <c r="C8" s="7">
+        <v>447983673</v>
+      </c>
+      <c r="E8" s="8">
+        <f>AVERAGE(B28:B32)</f>
+        <v>31139517</v>
+      </c>
+      <c r="F8" s="8">
+        <f>AVERAGE(C28:C32)</f>
+        <v>486277817.19999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>28.862103191902431</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8261165712084637</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>28.651769002260796</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="4"/>
+        <v>15.616100185497418</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="7">
+        <v>336049738</v>
+      </c>
+      <c r="C9" s="7">
+        <v>445401913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="7">
+        <v>335465859</v>
+      </c>
+      <c r="C10" s="7">
+        <v>445088545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="7">
+        <v>335832412</v>
+      </c>
+      <c r="C11" s="7">
+        <v>445208379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="7">
+        <v>335366266</v>
+      </c>
+      <c r="C12" s="7">
+        <v>442713591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7">
+        <v>170488827</v>
+      </c>
+      <c r="C13" s="7">
+        <v>442627111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="7">
+        <v>170614866</v>
+      </c>
+      <c r="C14" s="7">
+        <v>445106079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="7">
+        <v>170589519</v>
+      </c>
+      <c r="C15" s="7">
+        <v>442496200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="7">
+        <v>170507181</v>
+      </c>
+      <c r="C16" s="7">
+        <v>443089963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="7">
+        <v>170470244</v>
+      </c>
+      <c r="C17" s="7">
+        <v>444827645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
+        <v>90416084</v>
+      </c>
+      <c r="C18" s="7">
+        <v>446529318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="7">
+        <v>90469462</v>
+      </c>
+      <c r="C19" s="7">
+        <v>444147318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="7">
+        <v>90390030</v>
+      </c>
+      <c r="C20" s="7">
+        <v>443508348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="7">
+        <v>90367891</v>
+      </c>
+      <c r="C21" s="7">
+        <v>446834268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="7">
+        <v>90370923</v>
+      </c>
+      <c r="C22" s="7">
+        <v>446525503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>53725858</v>
+      </c>
+      <c r="C23" s="7">
+        <v>499130603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="7">
+        <v>53751436</v>
+      </c>
+      <c r="C24" s="7">
+        <v>500768589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="7">
+        <v>53737713</v>
+      </c>
+      <c r="C25" s="7">
+        <v>499220190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="7">
+        <v>53729174</v>
+      </c>
+      <c r="C26" s="7">
+        <v>499040583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="7">
+        <v>53733432</v>
+      </c>
+      <c r="C27" s="7">
+        <v>499792836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7">
+        <v>31021284</v>
+      </c>
+      <c r="C28" s="7">
+        <v>485768823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="7">
+        <v>31607613</v>
+      </c>
+      <c r="C29" s="7">
+        <v>486731080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="7">
+        <v>31061222</v>
+      </c>
+      <c r="C30" s="7">
+        <v>487156787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="7">
+        <v>30988499</v>
+      </c>
+      <c r="C31" s="7">
+        <v>485909019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="7">
+        <v>31018967</v>
+      </c>
+      <c r="C32" s="7">
+        <v>485823377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3980,10 +3801,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4009,7 +3830,7 @@
         <v>46</v>
       </c>
       <c r="L2" s="10">
-        <v>0.98</v>
+        <v>3.9399999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4017,18 +3838,18 @@
         <v>37</v>
       </c>
       <c r="B3" s="7">
-        <v>898892627</v>
+        <v>314986064</v>
       </c>
       <c r="C3" s="7">
-        <v>892939801</v>
+        <v>318119228</v>
       </c>
       <c r="E3" s="8">
         <f>AVERAGE(B3:B7)</f>
-        <v>898751953</v>
+        <v>314986064</v>
       </c>
       <c r="F3" s="8">
         <f>AVERAGE(C3:C7)</f>
-        <v>887999980.20000005</v>
+        <v>318119228</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -4046,167 +3867,167 @@
       </c>
       <c r="K3" s="9">
         <f>F3/E3</f>
-        <v>0.98803677392398392</v>
+        <v>1.0099469924485294</v>
       </c>
       <c r="L3" s="9">
-        <f>1+$L$2*(G3-1)</f>
+        <f t="shared" ref="L3:L8" si="0">1+$L$2*(G3-1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="7">
-        <v>900598028</v>
+        <v>314986064</v>
       </c>
       <c r="C4" s="7">
-        <v>885067828</v>
+        <v>318119228</v>
       </c>
       <c r="E4" s="8">
         <f>AVERAGE(B8:B12)</f>
-        <v>335705097.60000002</v>
+        <v>162837731</v>
       </c>
       <c r="F4" s="8">
         <f>AVERAGE(C8:C12)</f>
-        <v>445279220.19999999</v>
+        <v>181874664</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
-        <v>2.6772067490940596</v>
+        <f t="shared" ref="H4:H8" si="1">$E$3/E4</f>
+        <v>1.9343555210800623</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
-        <v>1.9942542564666486</v>
+        <f t="shared" ref="I4:I8" si="2">$F$3/F4</f>
+        <v>1.7491123887382136</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J8" si="2">I4*L4/2</f>
-        <v>1.9743117139019821</v>
+        <f>I4*L4</f>
+        <v>1.8180274168544994</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K8" si="3">F4/E4</f>
-        <v>1.3263999366806158</v>
+        <v>1.116907383092927</v>
       </c>
       <c r="L4" s="9">
-        <f>1+$L$2*(G4-1)</f>
-        <v>1.98</v>
+        <f t="shared" si="0"/>
+        <v>1.0394000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="7">
-        <v>898385189</v>
+        <v>314986064</v>
       </c>
       <c r="C5" s="7">
-        <v>886788898</v>
+        <v>318119228</v>
       </c>
       <c r="E5" s="8">
         <f>AVERAGE(B13:B17)</f>
-        <v>170534127.40000001</v>
+        <v>86422464</v>
       </c>
       <c r="F5" s="8">
         <f>AVERAGE(C13:C17)</f>
-        <v>443629399.60000002</v>
+        <v>104450760</v>
       </c>
       <c r="G5" s="7">
         <v>4</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>5.2702175611566178</v>
+        <f t="shared" si="1"/>
+        <v>3.6447244086907773</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>2.0016707211033991</v>
+        <f t="shared" si="2"/>
+        <v>3.045638231832875</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="2"/>
-        <v>3.9432913205736959</v>
+        <f t="shared" ref="J5:J8" si="4">I5*L5</f>
+        <v>3.4056326708355211</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="3"/>
-        <v>2.6014112621542052</v>
+        <v>1.2086065956184726</v>
       </c>
       <c r="L5" s="9">
-        <f>1+$L$2*(G5-1)</f>
-        <v>3.94</v>
+        <f t="shared" si="0"/>
+        <v>1.1182000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="7">
-        <v>897468078</v>
+        <v>314986064</v>
       </c>
       <c r="C6" s="7">
-        <v>887552471</v>
+        <v>318119228</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(B18:B22)</f>
-        <v>90402878</v>
+        <v>48576296</v>
       </c>
       <c r="F6" s="8">
         <f>AVERAGE(C18:C22)</f>
-        <v>445508951</v>
+        <v>66280830</v>
       </c>
       <c r="G6" s="7">
         <v>8</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>9.9416298781992314</v>
+        <f t="shared" si="1"/>
+        <v>6.4843573911028543</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9932259008641109</v>
+        <f t="shared" si="2"/>
+        <v>4.7995661490660275</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="2"/>
-        <v>7.8333777903959554</v>
+        <f t="shared" si="4"/>
+        <v>6.1232864929784379</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="3"/>
-        <v>4.9280394701593462</v>
+        <v>1.3644685877243501</v>
       </c>
       <c r="L6" s="9">
-        <f>1+$L$2*(G6-1)</f>
-        <v>7.8599999999999994</v>
+        <f t="shared" si="0"/>
+        <v>1.2758</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="7">
-        <v>898415843</v>
+        <v>314986064</v>
       </c>
       <c r="C7" s="7">
-        <v>887650903</v>
+        <v>318119228</v>
       </c>
       <c r="E7" s="8">
         <f>AVERAGE(B23:B27)</f>
-        <v>53735522.600000001</v>
+        <v>32978947</v>
       </c>
       <c r="F7" s="8">
         <f>AVERAGE(C23:C27)</f>
-        <v>499590560.19999999</v>
+        <v>52128493</v>
       </c>
       <c r="G7" s="7">
         <v>16</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>16.7254715226311</v>
+        <f t="shared" si="1"/>
+        <v>9.551125571110564</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>1.7774554824344739</v>
+        <f t="shared" si="2"/>
+        <v>6.1025978249553461</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="2"/>
-        <v>13.953025537110619</v>
+        <f t="shared" si="4"/>
+        <v>9.7092331395039562</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>9.2972122727620032</v>
+        <v>1.580659716030351</v>
       </c>
       <c r="L7" s="9">
-        <f>1+$L$2*(G7-1)</f>
-        <v>15.7</v>
+        <f t="shared" si="0"/>
+        <v>1.591</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4214,513 +4035,6 @@
         <v>40</v>
       </c>
       <c r="B8" s="7">
-        <v>335811213</v>
-      </c>
-      <c r="C8" s="7">
-        <v>447983673</v>
-      </c>
-      <c r="E8" s="8">
-        <f>AVERAGE(B28:B32)</f>
-        <v>31139517</v>
-      </c>
-      <c r="F8" s="8">
-        <f>AVERAGE(C28:C32)</f>
-        <v>486277817.19999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>32</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>28.862103191902431</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="1"/>
-        <v>1.8261165712084637</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="2"/>
-        <v>28.651769002260796</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="3"/>
-        <v>15.616100185497418</v>
-      </c>
-      <c r="L8" s="9">
-        <f>1+$L$2*(G8-1)</f>
-        <v>31.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="7">
-        <v>336049738</v>
-      </c>
-      <c r="C9" s="7">
-        <v>445401913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="7">
-        <v>335465859</v>
-      </c>
-      <c r="C10" s="7">
-        <v>445088545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="7">
-        <v>335832412</v>
-      </c>
-      <c r="C11" s="7">
-        <v>445208379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="7">
-        <v>335366266</v>
-      </c>
-      <c r="C12" s="7">
-        <v>442713591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7">
-        <v>170488827</v>
-      </c>
-      <c r="C13" s="7">
-        <v>442627111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="7">
-        <v>170614866</v>
-      </c>
-      <c r="C14" s="7">
-        <v>445106079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="7">
-        <v>170589519</v>
-      </c>
-      <c r="C15" s="7">
-        <v>442496200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="7">
-        <v>170507181</v>
-      </c>
-      <c r="C16" s="7">
-        <v>443089963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="7">
-        <v>170470244</v>
-      </c>
-      <c r="C17" s="7">
-        <v>444827645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="7">
-        <v>90416084</v>
-      </c>
-      <c r="C18" s="7">
-        <v>446529318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="7">
-        <v>90469462</v>
-      </c>
-      <c r="C19" s="7">
-        <v>444147318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="7">
-        <v>90390030</v>
-      </c>
-      <c r="C20" s="7">
-        <v>443508348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="7">
-        <v>90367891</v>
-      </c>
-      <c r="C21" s="7">
-        <v>446834268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="7">
-        <v>90370923</v>
-      </c>
-      <c r="C22" s="7">
-        <v>446525503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7">
-        <v>53725858</v>
-      </c>
-      <c r="C23" s="7">
-        <v>499130603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="7">
-        <v>53751436</v>
-      </c>
-      <c r="C24" s="7">
-        <v>500768589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="7">
-        <v>53737713</v>
-      </c>
-      <c r="C25" s="7">
-        <v>499220190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="7">
-        <v>53729174</v>
-      </c>
-      <c r="C26" s="7">
-        <v>499040583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="7">
-        <v>53733432</v>
-      </c>
-      <c r="C27" s="7">
-        <v>499792836</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7">
-        <v>31021284</v>
-      </c>
-      <c r="C28" s="7">
-        <v>485768823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="7">
-        <v>31607613</v>
-      </c>
-      <c r="C29" s="7">
-        <v>486731080</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="7">
-        <v>31061222</v>
-      </c>
-      <c r="C30" s="7">
-        <v>487156787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="7">
-        <v>30988499</v>
-      </c>
-      <c r="C31" s="7">
-        <v>485909019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="7">
-        <v>31018967</v>
-      </c>
-      <c r="C32" s="7">
-        <v>485823377</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="10">
-        <v>3.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="7">
-        <v>314986064</v>
-      </c>
-      <c r="C3" s="7">
-        <v>318119228</v>
-      </c>
-      <c r="E3" s="8">
-        <f>AVERAGE(B3:B7)</f>
-        <v>314986064</v>
-      </c>
-      <c r="F3" s="8">
-        <f>AVERAGE(C3:C7)</f>
-        <v>318119228</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
-        <f>$E$3/E3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <f>$F$3/F3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <f>I3*L3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="9">
-        <f>F3/E3</f>
-        <v>1.0099469924485294</v>
-      </c>
-      <c r="L3" s="9">
-        <f>1+$L$2*(G3-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="7">
-        <v>314986064</v>
-      </c>
-      <c r="C4" s="7">
-        <v>318119228</v>
-      </c>
-      <c r="E4" s="8">
-        <f>AVERAGE(B8:B12)</f>
-        <v>162837731</v>
-      </c>
-      <c r="F4" s="8">
-        <f>AVERAGE(C8:C12)</f>
-        <v>181874664</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
-        <v>1.9343555210800623</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
-        <v>1.7491123887382136</v>
-      </c>
-      <c r="J4" s="7">
-        <f>I4*L4</f>
-        <v>1.8180274168544994</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K8" si="2">F4/E4</f>
-        <v>1.116907383092927</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L8" si="3">1+$L$2*(G4-1)</f>
-        <v>1.0394000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="7">
-        <v>314986064</v>
-      </c>
-      <c r="C5" s="7">
-        <v>318119228</v>
-      </c>
-      <c r="E5" s="8">
-        <f>AVERAGE(B13:B17)</f>
-        <v>86422464</v>
-      </c>
-      <c r="F5" s="8">
-        <f>AVERAGE(C13:C17)</f>
-        <v>104450760</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>3.6447244086907773</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>3.045638231832875</v>
-      </c>
-      <c r="J5" s="7">
-        <f>I5*L5</f>
-        <v>3.4056326708355211</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="2"/>
-        <v>1.2086065956184726</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="3"/>
-        <v>1.1182000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="7">
-        <v>314986064</v>
-      </c>
-      <c r="C6" s="7">
-        <v>318119228</v>
-      </c>
-      <c r="E6" s="8">
-        <f>AVERAGE(B18:B22)</f>
-        <v>48576296</v>
-      </c>
-      <c r="F6" s="8">
-        <f>AVERAGE(C18:C22)</f>
-        <v>66280830</v>
-      </c>
-      <c r="G6" s="7">
-        <v>8</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>6.4843573911028543</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7995661490660275</v>
-      </c>
-      <c r="J6" s="7">
-        <f>I6*L6</f>
-        <v>6.1232864929784379</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="2"/>
-        <v>1.3644685877243501</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" si="3"/>
-        <v>1.2758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="7">
-        <v>314986064</v>
-      </c>
-      <c r="C7" s="7">
-        <v>318119228</v>
-      </c>
-      <c r="E7" s="8">
-        <f>AVERAGE(B23:B27)</f>
-        <v>32978947</v>
-      </c>
-      <c r="F7" s="8">
-        <f>AVERAGE(C23:C27)</f>
-        <v>52128493</v>
-      </c>
-      <c r="G7" s="7">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>9.551125571110564</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>6.1025978249553461</v>
-      </c>
-      <c r="J7" s="7">
-        <f>I7*L7</f>
-        <v>9.7092331395039562</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="2"/>
-        <v>1.580659716030351</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="3"/>
-        <v>1.591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7">
         <v>162837731</v>
       </c>
       <c r="C8" s="7">
@@ -4738,23 +4052,23 @@
         <v>32</v>
       </c>
       <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>14.297470166327786</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>7.8810683159375641</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="4"/>
+        <v>17.507005157023706</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="3"/>
+        <v>1.8321991911812934</v>
+      </c>
+      <c r="L8" s="9">
         <f t="shared" si="0"/>
-        <v>14.297470166327786</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="1"/>
-        <v>7.8810683159375641</v>
-      </c>
-      <c r="J8" s="7">
-        <f>I8*L8</f>
-        <v>17.507005157023706</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="2"/>
-        <v>1.8321991911812934</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="3"/>
         <v>2.2214</v>
       </c>
     </row>
@@ -4971,462 +4285,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E3:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="7">
-        <v>126300912</v>
-      </c>
-      <c r="C3" s="7">
-        <v>127139945</v>
-      </c>
-      <c r="E3" s="8">
-        <f>AVERAGE(B3:B7)</f>
-        <v>124817968.40000001</v>
-      </c>
-      <c r="F3" s="8">
-        <f>AVERAGE(C3:C7)</f>
-        <v>126462668</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
-        <f>$E$3/E3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <f>$F$3/F3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="9">
-        <f>F3/E3</f>
-        <v>1.0131767855308242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="7">
-        <v>125486972</v>
-      </c>
-      <c r="C4" s="7">
-        <v>126889306</v>
-      </c>
-      <c r="E4" s="8">
-        <f>AVERAGE(B8:B12)</f>
-        <v>66433031.399999999</v>
-      </c>
-      <c r="F4" s="8">
-        <f>AVERAGE(C8:C12)</f>
-        <v>73439444.599999994</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H8" si="0">$E$3/E4</f>
-        <v>1.8788540244153304</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I8" si="1">$F$3/F4</f>
-        <v>1.7219992428973245</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K8" si="2">F4/E4</f>
-        <v>1.1054658059755496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="7">
-        <v>124613480</v>
-      </c>
-      <c r="C5" s="7">
-        <v>125974129</v>
-      </c>
-      <c r="E5" s="8">
-        <f>AVERAGE(B13:B17)</f>
-        <v>34871512.200000003</v>
-      </c>
-      <c r="F5" s="8">
-        <f>AVERAGE(C13:C17)</f>
-        <v>41348976.200000003</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>3.5793678141666594</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>3.0584231974285254</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="2"/>
-        <v>1.185752311596054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="7">
-        <v>125211437</v>
-      </c>
-      <c r="C6" s="7">
-        <v>126380308</v>
-      </c>
-      <c r="E6" s="8">
-        <f>AVERAGE(B18:B22)</f>
-        <v>19384850.199999999</v>
-      </c>
-      <c r="F6" s="8">
-        <f>AVERAGE(C18:C22)</f>
-        <v>26685826.800000001</v>
-      </c>
-      <c r="G6" s="7">
-        <v>8</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>6.4389441812658426</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7389450942550519</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="2"/>
-        <v>1.3766331194037291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="7">
-        <v>122477041</v>
-      </c>
-      <c r="C7" s="7">
-        <v>125929652</v>
-      </c>
-      <c r="E7" s="8">
-        <f>AVERAGE(B23:B27)</f>
-        <v>13174650.800000001</v>
-      </c>
-      <c r="F7" s="8">
-        <f>AVERAGE(C23:C27)</f>
-        <v>20362268</v>
-      </c>
-      <c r="G7" s="7">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>9.4741007025400634</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>6.2106376362397349</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="2"/>
-        <v>1.5455641526377306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7">
-        <v>67709109</v>
-      </c>
-      <c r="C8" s="7">
-        <v>74097758</v>
-      </c>
-      <c r="E8" s="8">
-        <f>AVERAGE(B28:B32)</f>
-        <v>8591579.5999999996</v>
-      </c>
-      <c r="F8" s="8">
-        <f>AVERAGE(C28:C32)</f>
-        <v>15901929.4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>32</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>14.527941800131842</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="1"/>
-        <v>7.9526618952288892</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="2"/>
-        <v>1.8508737787868486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="7">
-        <v>65857958</v>
-      </c>
-      <c r="C9" s="7">
-        <v>73448895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="7">
-        <v>67250596</v>
-      </c>
-      <c r="C10" s="7">
-        <v>73132928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="7">
-        <v>65889344</v>
-      </c>
-      <c r="C11" s="7">
-        <v>73273955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="7">
-        <v>65458150</v>
-      </c>
-      <c r="C12" s="7">
-        <v>73243687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7">
-        <v>35568951</v>
-      </c>
-      <c r="C13" s="7">
-        <v>43073099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="7">
-        <v>34136726</v>
-      </c>
-      <c r="C14" s="7">
-        <v>40760901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="7">
-        <v>33828560</v>
-      </c>
-      <c r="C15" s="7">
-        <v>40794617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="7">
-        <v>36178894</v>
-      </c>
-      <c r="C16" s="7">
-        <v>41087950</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="7">
-        <v>34644430</v>
-      </c>
-      <c r="C17" s="7">
-        <v>41028314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="7">
-        <v>20230493</v>
-      </c>
-      <c r="C18" s="7">
-        <v>27690241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="7">
-        <v>18920871</v>
-      </c>
-      <c r="C19" s="7">
-        <v>26647203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="7">
-        <v>19212352</v>
-      </c>
-      <c r="C20" s="7">
-        <v>26742960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="7">
-        <v>19541949</v>
-      </c>
-      <c r="C21" s="7">
-        <v>26148259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="7">
-        <v>19018586</v>
-      </c>
-      <c r="C22" s="7">
-        <v>26200471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7">
-        <v>13862748</v>
-      </c>
-      <c r="C23" s="7">
-        <v>20958379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="7">
-        <v>13092113</v>
-      </c>
-      <c r="C24" s="7">
-        <v>20320169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="7">
-        <v>13008592</v>
-      </c>
-      <c r="C25" s="7">
-        <v>20381749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="7">
-        <v>12896840</v>
-      </c>
-      <c r="C26" s="7">
-        <v>19969621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="7">
-        <v>13012961</v>
-      </c>
-      <c r="C27" s="7">
-        <v>20181422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7">
-        <v>8865024</v>
-      </c>
-      <c r="C28" s="7">
-        <v>16169432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="7">
-        <v>8499758</v>
-      </c>
-      <c r="C29" s="7">
-        <v>15970930</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="7">
-        <v>8491923</v>
-      </c>
-      <c r="C30" s="7">
-        <v>15817005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="7">
-        <v>8528232</v>
-      </c>
-      <c r="C31" s="7">
-        <v>15930286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="7">
-        <v>8572961</v>
-      </c>
-      <c r="C32" s="7">
-        <v>15621994</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5546,11 +4405,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6271,8 +5131,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -6283,7 +5144,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1">
         <v>126300912</v>
@@ -6294,7 +5155,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6308,19 +5169,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
       </c>
       <c r="H3">
         <v>124613480</v>
@@ -6331,19 +5192,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
       </c>
       <c r="H4">
         <v>125211437</v>
@@ -6354,19 +5215,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
       </c>
       <c r="H5">
         <v>122477041</v>
@@ -6377,19 +5238,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
       </c>
       <c r="H6">
         <v>67709109</v>
@@ -6400,19 +5261,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
       </c>
       <c r="H7">
         <v>65857958</v>
@@ -6423,7 +5284,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>67250596</v>
@@ -6434,7 +5295,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6448,19 +5309,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
       </c>
       <c r="H10">
         <v>65458150</v>
@@ -6471,19 +5332,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
       </c>
       <c r="H11">
         <v>35568951</v>
@@ -6494,19 +5355,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
       </c>
       <c r="H12">
         <v>34136726</v>
@@ -6517,19 +5378,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
       </c>
       <c r="H13">
         <v>33828560</v>
@@ -6540,19 +5401,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
       </c>
       <c r="H14">
         <v>36178894</v>
@@ -6563,7 +5424,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15">
         <v>34644430</v>
@@ -6574,7 +5435,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -6588,19 +5449,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
       </c>
       <c r="H17">
         <v>18920871</v>
@@ -6611,19 +5472,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
       </c>
       <c r="H18">
         <v>19212352</v>
@@ -6634,19 +5495,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
       </c>
       <c r="H19">
         <v>19541949</v>
@@ -6657,19 +5518,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
       </c>
       <c r="H20">
         <v>19018586</v>
@@ -6680,19 +5541,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
       </c>
       <c r="H21">
         <v>13862748</v>
@@ -6703,7 +5564,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>13092113</v>
@@ -6714,7 +5575,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -6728,19 +5589,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
       </c>
       <c r="H24">
         <v>12896840</v>
@@ -6751,19 +5612,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
       </c>
       <c r="H25">
         <v>13012961</v>
@@ -6774,19 +5635,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
       </c>
       <c r="H26">
         <v>8865024</v>
@@ -6797,19 +5658,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
       </c>
       <c r="H27">
         <v>8499758</v>
@@ -6820,19 +5681,19 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
       </c>
       <c r="H28">
         <v>8491923</v>
@@ -6843,7 +5704,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29">
         <v>8528232</v>
@@ -6854,7 +5715,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -6868,97 +5729,97 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
         <v>52</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>53</v>
-      </c>
-      <c r="E32" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
         <v>52</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>53</v>
-      </c>
-      <c r="E34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -6966,97 +5827,97 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>53</v>
-      </c>
-      <c r="E38" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>53</v>
-      </c>
-      <c r="E40" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
         <v>52</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>53</v>
-      </c>
-      <c r="E42" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -7064,97 +5925,97 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>53</v>
-      </c>
-      <c r="E45" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>53</v>
-      </c>
-      <c r="E46" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
         <v>52</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>53</v>
-      </c>
-      <c r="E48" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>53</v>
-      </c>
-      <c r="E49" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -7162,97 +6023,97 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
         <v>52</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>53</v>
-      </c>
-      <c r="E52" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>53</v>
-      </c>
-      <c r="E53" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
         <v>52</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>53</v>
-      </c>
-      <c r="E55" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>53</v>
-      </c>
-      <c r="E56" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -7260,97 +6121,97 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>53</v>
-      </c>
-      <c r="E59" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
         <v>52</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>53</v>
-      </c>
-      <c r="E60" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" t="s">
         <v>52</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>53</v>
-      </c>
-      <c r="E61" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
         <v>52</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>53</v>
-      </c>
-      <c r="E62" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s">
         <v>52</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>53</v>
-      </c>
-      <c r="E63" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65">
         <v>16</v>
@@ -7358,97 +6219,97 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
         <v>52</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>53</v>
-      </c>
-      <c r="E66" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
         <v>52</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>53</v>
-      </c>
-      <c r="E67" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
         <v>52</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>53</v>
-      </c>
-      <c r="E68" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" t="s">
         <v>52</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>53</v>
-      </c>
-      <c r="E69" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
         <v>52</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>53</v>
-      </c>
-      <c r="E70" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72">
         <v>32</v>
@@ -7456,97 +6317,97 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
         <v>52</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>53</v>
-      </c>
-      <c r="E73" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" t="s">
         <v>52</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>53</v>
-      </c>
-      <c r="E74" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
         <v>52</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>53</v>
-      </c>
-      <c r="E75" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" t="s">
         <v>52</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>53</v>
-      </c>
-      <c r="E76" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
         <v>52</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>53</v>
-      </c>
-      <c r="E77" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79">
         <v>32</v>
@@ -7554,87 +6415,87 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" t="s">
         <v>52</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>53</v>
-      </c>
-      <c r="E80" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s">
         <v>52</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>53</v>
-      </c>
-      <c r="E81" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" t="s">
         <v>52</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>53</v>
-      </c>
-      <c r="E82" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="s">
         <v>52</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>53</v>
-      </c>
-      <c r="E83" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" t="s">
         <v>52</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>53</v>
-      </c>
-      <c r="E84" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/streams/docs/induction-state-2012/figures/Table figures.xlsx
+++ b/streams/docs/induction-state-2012/figures/Table figures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Induction Work%" sheetId="1" r:id="rId1"/>
@@ -810,11 +810,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99978624"/>
-        <c:axId val="100039680"/>
+        <c:axId val="81406976"/>
+        <c:axId val="81413632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99978624"/>
+        <c:axId val="81406976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,14 +839,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100039680"/>
+        <c:crossAx val="81413632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100039680"/>
+        <c:axId val="81413632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +872,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99978624"/>
+        <c:crossAx val="81406976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -883,10 +883,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24166666666666667"/>
+          <c:x val="0.2416666666666667"/>
           <c:y val="0.24460265383493729"/>
-          <c:w val="0.19484733158355202"/>
-          <c:h val="0.22532079323417906"/>
+          <c:w val="0.19484733158355205"/>
+          <c:h val="0.22532079323417903"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -915,7 +915,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1147,11 +1147,335 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75442432"/>
-        <c:axId val="75456896"/>
+        <c:axId val="83917056"/>
+        <c:axId val="83923328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75442432"/>
+        <c:axId val="83917056"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83923328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83923328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedups Over 1 Core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83917056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20833333333333351"/>
+          <c:y val="0.15702354913969091"/>
+          <c:w val="0.32047727162939005"/>
+          <c:h val="0.21918682891911237"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firbank!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Using iter()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Firbank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Firbank!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9343555210800623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6447244086907773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4843573911028543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.551125571110564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.297470166327786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firbank!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base induction state</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Firbank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Firbank!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7491123887382136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.045638231832875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7995661490660275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1025978249553461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8810683159375641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Theoretical Speedups</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Firbank!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Firbank!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8180274168544994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4056326708355211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1232864929784379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7092331395039562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.507005157023706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="84125568"/>
+        <c:axId val="84144128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84125568"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1177,12 +1501,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75456896"/>
+        <c:crossAx val="84144128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75456896"/>
+        <c:axId val="84144128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,7 +1532,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75442432"/>
+        <c:crossAx val="84125568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1219,9 +1543,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20833333333333348"/>
+          <c:x val="0.20833333333333356"/>
           <c:y val="0.15702354913969091"/>
-          <c:w val="0.32047727162938994"/>
+          <c:w val="0.32047727162939027"/>
           <c:h val="0.21918682891911237"/>
         </c:manualLayout>
       </c:layout>
@@ -1241,333 +1565,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firbank!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Using iter()</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Firbank!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Firbank!$H$3:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9343555210800623</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6447244086907773</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4843573911028543</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.551125571110564</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.297470166327786</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firbank!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base induction state</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Firbank!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Firbank!$I$3:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7491123887382136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.045638231832875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7995661490660275</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1025978249553461</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.8810683159375641</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Theoretical Speedups</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Firbank!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Firbank!$J$3:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8180274168544994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4056326708355211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1232864929784379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.7092331395039562</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.507005157023706</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="82059264"/>
-        <c:axId val="82061184"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="82059264"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82061184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="82061184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedups Over 1 Core</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82059264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20833333333333354"/>
-          <c:y val="0.15702354913969091"/>
-          <c:w val="0.32047727162939016"/>
-          <c:h val="0.21918682891911237"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1728,11 +1726,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75127424"/>
-        <c:axId val="75154176"/>
+        <c:axId val="84013824"/>
+        <c:axId val="84015744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75127424"/>
+        <c:axId val="84013824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,19 +1751,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75154176"/>
+        <c:crossAx val="84015744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75154176"/>
+        <c:axId val="84015744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,12 +1784,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75127424"/>
+        <c:crossAx val="84013824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,7 +1802,7 @@
           <c:x val="0.20560644368995201"/>
           <c:y val="0.101467993584135"/>
           <c:w val="0.20229357798165087"/>
-          <c:h val="0.16743438320210027"/>
+          <c:h val="0.16743438320210033"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1826,7 +1822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1986,11 +1982,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77285632"/>
-        <c:axId val="77300096"/>
+        <c:axId val="84472192"/>
+        <c:axId val="84474112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77285632"/>
+        <c:axId val="84472192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2013,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2035,14 +2030,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77300096"/>
+        <c:crossAx val="84474112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77300096"/>
+        <c:axId val="84474112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2065,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2088,7 +2082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77285632"/>
+        <c:crossAx val="84472192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2100,9 +2094,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173156781220104"/>
-          <c:y val="0.11381764445476393"/>
+          <c:y val="0.11381764445476392"/>
           <c:w val="0.20229357798165087"/>
-          <c:h val="0.16743438320210027"/>
+          <c:h val="0.16743438320210033"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2122,7 +2116,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2163,11 +2157,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>12597</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="895351" cy="265981"/>
+    <xdr:ext cx="890588" cy="265981"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -2175,8 +2169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495924" y="771525"/>
-          <a:ext cx="895351" cy="265981"/>
+          <a:off x="5505450" y="774597"/>
+          <a:ext cx="890588" cy="265981"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3015,8 +3009,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3780,7 +3774,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
